--- a/storage/app/repository/ISO27001-2022.en.xlsx
+++ b/storage/app/repository/ISO27001-2022.en.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name=" Worksheet" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name=" Worksheet" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="724">
   <si>
     <t xml:space="preserve">Domain</t>
   </si>
@@ -130,7 +130,7 @@
     <t xml:space="preserve">Continuously ensure the relevance, adequacy and effectiveness of management's orientations and its support for information security according to business, legal, statutory, regulatory and contractual requirements.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Governance #Governance_and_Ecosystem #Resilience</t>
+    <t xml:space="preserve">#Preventive #Confidentiality #Integrity #Availability #Identify #Governance #Governance_and_Ecosystem #Resilience</t>
   </si>
   <si>
     <t xml:space="preserve"> - information security policy set - approval evidence - dissemination evidence</t>
@@ -154,7 +154,7 @@
     <t xml:space="preserve"> Establish a defined, approved and understood structure for the implementation, operation and management of information security within the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Governance #Governance_and_Ecosystem #Protection #Resilience</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Governance #Governance_and_Ecosystem #Protect #Resilience</t>
   </si>
   <si>
     <t xml:space="preserve"> - Security organization policy - Assignment by management of responsibilities for information security</t>
@@ -178,7 +178,7 @@
     <t xml:space="preserve"> Reduce the risk of fraud, error and circumvention of information security measures.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Governance #Management_of_iden_x0002_tities_and_access #Governance_and_Ecosystem</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Governance #Iden_x0002_tity_and_Access_Management #Governance_and_Ecosystem</t>
   </si>
   <si>
     <t xml:space="preserve"> - Definition of incompatible tasks and areas of responsibility</t>
@@ -274,7 +274,7 @@
     <t xml:space="preserve"> Provide knowledge of the organization's threat environment so that appropriate mitigation actions can be taken.</t>
   </si>
   <si>
-    <t xml:space="preserve">#Preventive #Detective #Corrective #Confidentiality #Integrity #Availability #Identification #Detect #Respond #Threat_and_vulnerability_management #Defense #Resilience</t>
+    <t xml:space="preserve">#Preventive #Detective #Corrective #Confidentiality #Integrity #Availability #Identify #Detective #Respond #Threat_and_vulnerability_management #Defense #Resilience</t>
   </si>
   <si>
     <t xml:space="preserve"> - sources of information on threats - proof of analyzes</t>
@@ -295,7 +295,7 @@
     <t xml:space="preserve"> Ensure that information security risks relating to projects and deliverables are addressed effectively in project management, throughout the project lifecycle.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Protect #Governance #Governance_and_Ecosystem #Protection</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Protect #Governance #Governance_and_Ecosystem </t>
   </si>
   <si>
     <t xml:space="preserve"> - security organization procedure - evidence of consideration of information security in project management</t>
@@ -316,7 +316,7 @@
     <t xml:space="preserve"> Identify information and other associated assets of the organization to maintain their security and assign ownership appropriately.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Asset_management #Governance_and_Ecosystem #Protection</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Asset_management #Governance_and_Ecosystem #Protect</t>
   </si>
   <si>
     <t xml:space="preserve"> - extract from the inventory - physical control of the inventory - check the attribution of an owner</t>
@@ -337,7 +337,7 @@
     <t xml:space="preserve"> Ensure that information and other associated assets are protected, used and processed appropriately.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Asset_management #Information_protection #Governance_and_Ecosystem #Protection</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Asset_management #Information_Protection #Governance_and_Ecosystem </t>
   </si>
   <si>
     <t xml:space="preserve"> - Rule for correct use of assets - Publication date</t>
@@ -358,7 +358,7 @@
     <t xml:space="preserve">Protect the organization's assets in the process of changing or terminating their employment, contract or agreement.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Asset_management #Protection</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Asset_management </t>
   </si>
   <si>
     <t xml:space="preserve"> - sample of employees who left the organization over the period - proof of return of assets</t>
@@ -382,7 +382,7 @@
     <t xml:space="preserve">Ensure the identification and understanding of information protection needs based on its importance to the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Protection_of_information_x0002_mations #Protection #Defense</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Information_Protection #Protect #Defense</t>
   </si>
   <si>
     <t xml:space="preserve"> - check the date of update of the procedure - check with the DPO and lawyer the conformity of the procedure in view of the changes in the context of the organization</t>
@@ -403,7 +403,7 @@
     <t xml:space="preserve">Facilitate the communication of information classification and support the automation of information management and processing.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Protection_of_information_x0002_mations #Defense #Protection</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Information_Protection #Defense </t>
   </si>
   <si>
     <t xml:space="preserve"> - marking procedure - sample information (procedure, form, etc.)</t>
@@ -424,7 +424,7 @@
     <t xml:space="preserve"> Maintain the security of information transferred within the organization and to any external interested parties</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Asset_management #Information_protection #Protection</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Asset_management #Information_Protection</t>
   </si>
   <si>
     <t xml:space="preserve"> rules, procedures or agreements for the transfer of information - inventory of the agreements concerned - terms of the agreements</t>
@@ -445,7 +445,7 @@
     <t xml:space="preserve"> Ensure authorized access and prevent unauthorized access to information and other associated assets.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Identity_and_access_management #Protection</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Identity_and_Access_Management </t>
   </si>
   <si>
     <t xml:space="preserve"> - Access control policy - Policy review date - Control date</t>
@@ -523,7 +523,7 @@
     <t xml:space="preserve"> Maintain the agreed level of information security in relationships with suppliers.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Security_of_supplier_relations #Governance_and_Ecosystem #Protection</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Supplier_relations #Governance_and_Ecosystem #Protect</t>
   </si>
   <si>
     <t xml:space="preserve"> - suppliers subject to information security requirements - information security requirements - acceptances by suppliers</t>
@@ -574,7 +574,7 @@
     <t xml:space="preserve"> Maintain an agreed level of information security and service delivery, in accordance with agreements with suppliers.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Security_of_supplier_relations #Assurance_of_information_security #Governance_and_Ecosystem #Protection #Defense</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Supplier_relations #Information_Security_Assurance #Governance_and_Ecosystem #Protect #Defense</t>
   </si>
   <si>
     <t xml:space="preserve"> - Suppliers concerned - Monitoring, verifications and audits carried out</t>
@@ -595,7 +595,7 @@
     <t xml:space="preserve"> Specify and manage information security when using cloud services.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Security_of_supplier_relations #Governance_and_Ecosystem #Protection</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Supplier_Relations #Governance_and_Ecosystem </t>
   </si>
   <si>
     <t xml:space="preserve"> - Relevant cloud services - Processes for acquisition, use, management and termination of cloud services - Evidence of application of acquisition, use, management and termination processes</t>
@@ -616,7 +616,7 @@
     <t xml:space="preserve"> Ensure a rapid, effective, consistent and orderly response to information security incidents, including communication on information security events.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Fix #Privacy #Integrity #Availability #Respond #Recover #Governance #Information_Security_Event Management #Defense</t>
+    <t xml:space="preserve"> #Fix #Privacy #Integrity #Availability #Respond #Recover #Governance #Information_Security_Event_Handling #Defense</t>
   </si>
   <si>
     <t xml:space="preserve"> - incident management procedure - update date</t>
@@ -637,7 +637,7 @@
     <t xml:space="preserve"> Ensure effective categorization and prioritization of information security events.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Detective #Privacy #Integrity #Availability #Detect #Respond #Information_security_event_handling #Defense</t>
+    <t xml:space="preserve"> #Detective #Privacy #Integrity #Availability #Detective #Respond #Information_Security_Event_Handling #Defense</t>
   </si>
   <si>
     <t xml:space="preserve"> - list of incidents - selection process - list of information security incidents</t>
@@ -679,7 +679,7 @@
     <t xml:space="preserve"> Reduce the likelihood or consequences of future incidents.</t>
   </si>
   <si>
-    <t xml:space="preserve">#Preventive #Confidentiality #Integrity #Availability #Identify #Protect #Information_security_event_management #Defense</t>
+    <t xml:space="preserve">#Preventive #Confidentiality #Integrity #Availability #Identify #Protect #Information_Security_Event_Handling #Defense</t>
   </si>
   <si>
     <t xml:space="preserve"> - Incident management procedure - Evidence of knowledge use</t>
@@ -700,7 +700,7 @@
     <t xml:space="preserve"> Ensure consistent and effective management of evidence relating to information security incidents for the purposes of legal or disciplinary actions.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Fixed #Privacy #Integrity #Availability #Detect #Respond #Information_security_event_handling #Defense</t>
+    <t xml:space="preserve"> #Fix #Privacy #Integrity #Availability #Detective #Respond #Information_security_event_Handling #Defense</t>
   </si>
   <si>
     <t xml:space="preserve"> - evidence collection procedure - proof of evidence collection</t>
@@ -721,7 +721,7 @@
     <t xml:space="preserve"> Protect information and other associated assets during a disruption.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Corrective #Confidentiality #Integrity #Availability #Protect #Respond #Continuity #Protection #Resilience</t>
+    <t xml:space="preserve"> #Preventive #Corrective #Confidentiality #Integrity #Availability #Protect #Respond #Continuity  #Resilience</t>
   </si>
   <si>
     <t xml:space="preserve"> - Business continuity management procedure - Security and continuity requirements - Evidence of verification of measures</t>
@@ -763,7 +763,7 @@
     <t xml:space="preserve">Ensure compliance with legal, statutory, regulatory and contractual requirements relating to information security.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Regulation_and_compliance #Governance_and_Ecosystem #Protection</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Regulation_and_compliance #Governance_and_Ecosystem #Protect</t>
   </si>
   <si>
     <t xml:space="preserve"> - inventory of current legal, statutory, regulatory and contractual requirements - approach adopted by the organization to meet these requirements</t>
@@ -784,7 +784,7 @@
     <t xml:space="preserve">Ensure compliance with legal, statutory, regulatory and contractual requirements relating to intellectual property rights and the use of proprietary products.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Regulations_and_compliance #Governance_and_Ecosystem</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Regulation_and_compliance #Governance_and_Ecosystem</t>
   </si>
   <si>
     <t xml:space="preserve"> - procedure to guarantee intellectual property - evidence of application of the procedure</t>
@@ -805,7 +805,35 @@
     <t xml:space="preserve">Ensure compliance with legal, statutory, regulatory and contractual requirements, as well as company or community expectations relating to the protection and availability of records.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Pro_x0002_téger #Regulation_and_confor_x0002_mity #Management_of_assets #Protection_of_information_x0002_tions #Defense</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Protect #Regulation_and_compliance #Asset_Management </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">#Information_Protection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> #Defense</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve"> - recording protection measures - legal, regulatory, contractual and business requirements - Inventory of key information sources</t>
@@ -826,7 +854,7 @@
     <t xml:space="preserve"> Ensure compliance with legal, statutory, regulatory and contractual requirements relating to aspects of information security relating to the protection of personal data.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Protect #Information_Protection #Regulation_and_compliance #Protection</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Protect #Information_Protection #Regulation_and_compliance </t>
   </si>
   <si>
     <t xml:space="preserve"> - Privacy policy - protection measures</t>
@@ -847,7 +875,7 @@
     <t xml:space="preserve"> Ensure that the organization's approach to managing information security is continually appropriate, adequate and effective.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Cor_x0002_rective #Confidentiality #Integrity #Availability #Identify #Protect #Information_Security_Assurance #Governance_and_Ecosystem</t>
+    <t xml:space="preserve"> #Preventive #Cor_x0002_rective #Confidentiality #Integrity #Availability #Identify #Protect #Information_Security #Governance_and_Ecosystem</t>
   </si>
   <si>
     <t xml:space="preserve"> - Independent journals - Journal monitoring plan - Changes in organization</t>
@@ -868,7 +896,7 @@
     <t xml:space="preserve"> Ensure that information security is implemented and operating in accordance with the information security policy, topic-specific policies, rules and standards of the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve">#Preventive #Confidentiality #Integrity #Availability #Identify #Protect #Regulation_and_compliance #Information_security_assurance #Governance_and_Ecosystem</t>
+    <t xml:space="preserve">#Preventive #Confidentiality #Integrity #Availability #Identify #Protect #Regulation_and_compliance #Information_Security #Governance_and_Ecosystem</t>
   </si>
   <si>
     <t xml:space="preserve"> - inventory of the information systems concerned - proof of verification</t>
@@ -889,7 +917,7 @@
     <t xml:space="preserve"> Ensure the correct and secure operation of information processing resources.</t>
   </si>
   <si>
-    <t xml:space="preserve">#Preventive #Corrective #Privacy #Integrity #Availability #Protect #Recover #Asset_management #Physical_security #System_and_network_security #Application_security #Secure_configuration #Identity_and_access_management #Threat_and_vulnerability_management #Continuity #Event_management _information_security #Governance_and_Ecosystem #Protection #Defense</t>
+    <t xml:space="preserve">#Preventive #Corrective #Privacy #Integrity #Availability #Protect #Recover #Asset_management #Physical_Security #System_and_network_security #Application_Security #Secure_configuration #Identity_and_Access_Management #Threat_and_vulnerability_management #Continuity #Event_management #Information_Security #Governance_and_Ecosystem #Defense</t>
   </si>
   <si>
     <t xml:space="preserve"> - operating procedure - availability of procedures to users</t>
@@ -937,7 +965,7 @@
     <t xml:space="preserve"> Ensure that all personnel are eligible and suitable to perform the duties for which they are candidates, and that they remain so throughout their employment.</t>
   </si>
   <si>
-    <t xml:space="preserve">#Preventive #Confidentiality #Integrity #Availability #Protect #Security_of_res_x0002_human_sources #Governance_and_Ecosystem</t>
+    <t xml:space="preserve">#Preventive #Confidentiality #Integrity #Availability #Protect #Human_Resources_Security #Governance_and_Ecosystem</t>
   </si>
   <si>
     <t xml:space="preserve"> - Candidate selection procedure - Evidence of execution of the selection process</t>
@@ -982,7 +1010,7 @@
     <t xml:space="preserve"> Ensure that staff and relevant interested parties are aware of and fulfill their information security responsibilities.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Security_of_res_x0002_human_sources #Governance_and_Ecosystem</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Human_Resources_Security #Governance_and_Ecosystem</t>
   </si>
   <si>
     <t xml:space="preserve"> - information security awareness plan - attendance sheets</t>
@@ -1006,7 +1034,7 @@
     <t xml:space="preserve"> Ensure that staff and other relevant interested parties understand the consequences of violations of the information security policy, prevent such violations, and appropriately deal with staff and other interested parties who have committed violations .</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Corrective #Confidentiality #Integrity #Availability #Protect #Respond #Human_resource_security #Governance_and_Ecosystem</t>
+    <t xml:space="preserve"> #Preventive #Corrective #Confidentiality #Integrity #Availability #Protect #Respond #Human_Resources_Security #Governance_and_Ecosystem</t>
   </si>
   <si>
     <t xml:space="preserve"> Disciplinary process - Communication of the process - Interested parties</t>
@@ -1054,7 +1082,7 @@
     <t xml:space="preserve"> Ensure the confidentiality of information accessible by staff or external parties.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Protect #Human_resources_security #Information_protection #Supplier_relations #Governance_and_Ecosystem</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Protect #Human_resources_security #Information_Protection #Supplier_Relations #Governance_and_Ecosystem</t>
   </si>
   <si>
     <t xml:space="preserve"> the requirements in terms of confidentiality or non-disclosure commitments are documented - the confidentiality commitments have been signed by the service providers during the last projects carried out.</t>
@@ -1075,7 +1103,7 @@
     <t xml:space="preserve"> Ensure information security when staff work remotely.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Privacy #Integrity #Availability #Protect #Asset_management #Information_protection #Physical_security #System_and_network_security #Protection</t>
+    <t xml:space="preserve"> #Preventive #Privacy #Integrity #Availability #Protect #Asset_management #Information_Protection #Physical_Security #System_and_network_security </t>
   </si>
   <si>
     <t xml:space="preserve"> - Additional security measures - Evidence of application of additional measures</t>
@@ -1096,7 +1124,7 @@
     <t xml:space="preserve"> Enable the reporting of information security events that can be identified by personnel, in a timely, consistent and efficient manner.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Detective #Privacy #Integrity #Availability #Detect #Information_Security_Event_Management #Defense</t>
+    <t xml:space="preserve"> #Detective #Privacy #Integrity #Availability #Detective #Information_Security_Event_handling #Defense</t>
   </si>
   <si>
     <t xml:space="preserve"> - Incident management procedure - Example of an incident reported by the hierarchical channels</t>
@@ -1141,7 +1169,7 @@
     <t xml:space="preserve"> Prevent unauthorized physical access, damage, or interference to information and other associated assets of the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Physical_Security #Protection</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Physical_Security </t>
   </si>
   <si>
     <t xml:space="preserve"> definition of security perimeters - inventory of areas containing sensitive information</t>
@@ -1162,7 +1190,7 @@
     <t xml:space="preserve"> Ensure that only authorized physical access to information and other associated assets of the organization is possible.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Physical_security #Identity_and_access_management #Protection</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Physical_Security #Identity_and_Access_Management </t>
   </si>
   <si>
     <t xml:space="preserve"> - inventory of secure areas - adequate entry controls - application of controls</t>
@@ -1183,7 +1211,7 @@
     <t xml:space="preserve"> Prevent unauthorized physical access, damage and interference to information and other associated assets of the organization in offices, rooms and facilities.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Physical_security #Asset_management #Protection</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Physical_Security #Asset_management </t>
   </si>
   <si>
     <t xml:space="preserve"> - inventory of offices, rooms and equipment - physical security measures - application of measures</t>
@@ -1204,7 +1232,7 @@
     <t xml:space="preserve"> Detect and deter unauthorized physical access.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Detective #Confidentiality #Integrity #Availability #Protect #Detect #Physical_Security #Protection #Defense</t>
+    <t xml:space="preserve"> #Preventive #Detective #Confidentiality #Integrity #Availability #Protect #Detective #Physical_Security  #Defense</t>
   </si>
   <si>
     <t xml:space="preserve"> - physical premises concerned - security measures put in place - evidence of surveillance</t>
@@ -1261,7 +1289,7 @@
     <t xml:space="preserve">Reduce the risk of unauthorized access, loss and damage to information on desks, screens and in other accessible locations during and outside normal working hours.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Privacy #Protect #Physical_Security #Protection</t>
+    <t xml:space="preserve"> #Preventive #Privacy #Protect #Physical_Security </t>
   </si>
   <si>
     <t xml:space="preserve"> - Clean desk policy - User compliance with policy</t>
@@ -1336,7 +1364,7 @@
     <t xml:space="preserve"> Prevent the loss, damage or compromise of information and other associated assets, or interruption of the organization's activities, caused by failures and disruptions of support services.</t>
   </si>
   <si>
-    <t xml:space="preserve">#Preventive #Detective #Integrity #Availability #Protect #Detect #Physical_Security #Protection</t>
+    <t xml:space="preserve">#Preventive #Detective #Integrity #Availability #Protect #Detective #Physical_Security </t>
   </si>
   <si>
     <t xml:space="preserve"> - inventory of the equipment concerned - protective measures</t>
@@ -1357,7 +1385,7 @@
     <t xml:space="preserve"> Prevent the loss, damage, theft or compromise of information and other associated assets and the interruption of organizational activities related to electrical and communications cabling.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Availability #Protect #Physical_Security #Protection</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Availability #Protect #Physical_Security </t>
   </si>
   <si>
     <t xml:space="preserve"> - inventory of the wiring concerned - protective measures against interception and damage</t>
@@ -1378,7 +1406,7 @@
     <t xml:space="preserve"> Prevent the loss, damage, theft or compromise of information and other associated assets and interruption of the organization's activities caused by lack of maintenance.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Privacy #Integrity #Availability #Protect #Physical_security #Asset_management #Protection #Resilience</t>
+    <t xml:space="preserve"> #Preventive #Privacy #Integrity #Availability #Protect #Physical_Security #Asset_management  #Resilience</t>
   </si>
   <si>
     <t xml:space="preserve"> - inventory of the equipment concerned - maintenance measures - proof of application of maintenance measures</t>
@@ -1399,7 +1427,7 @@
     <t xml:space="preserve">Avoid leaking information from material to be disposed of or reused.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Privacy #Protect #Physical_security #Asset_management #Protection</t>
+    <t xml:space="preserve"> #Preventive #Privacy #Protect #Physical_Security #Asset_management </t>
   </si>
   <si>
     <t xml:space="preserve"> - inventory of equipment containing sensitive data - evidence of data erasure</t>
@@ -1462,6 +1490,9 @@
     <t xml:space="preserve"> Protect information from risks associated with the use of end-user devices.</t>
   </si>
   <si>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Asset_management #Information_protection </t>
+  </si>
+  <si>
     <t xml:space="preserve"> - Security measures implemented - Inventory of user terminals - Evidence of application of protective measures</t>
   </si>
   <si>
@@ -1501,6 +1532,9 @@
     <t xml:space="preserve"> Ensure authorized access only and prevent unauthorized access to information and other associated assets.</t>
   </si>
   <si>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Identity_and_Access_Management</t>
+  </si>
+  <si>
     <t xml:space="preserve"> - restrictions on access to information - application of these restrictions</t>
   </si>
   <si>
@@ -1522,7 +1556,7 @@
     <t xml:space="preserve"> Prevent the introduction of unauthorized functionality, avoid unintentional or malicious modifications, and maintain the confidentiality of important intellectual property.</t>
   </si>
   <si>
-    <t xml:space="preserve">#Preventive #Confidentiality #Integrity #Availability #Protect #Identity_and_access_management #Application_security #Secure_configuration #Protection</t>
+    <t xml:space="preserve">#Preventive #Confidentiality #Integrity #Availability #Protect #Identity_and_Access_Management #Application_Security #Secure_configuration </t>
   </si>
   <si>
     <t xml:space="preserve"> - inventory of the source code of the programs - restriction of access to the source code</t>
@@ -1561,7 +1595,7 @@
     <t xml:space="preserve">Ensure needs in terms of means of processing information, human resources, offices and other facilities.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Detective #Integrity #Availability #Identify #Protect #Detect #Continuity #Governance_and_Ecosystem #Protection</t>
+    <t xml:space="preserve"> #Preventive #Detective #Integrity #Availability #Identify #Protect #Detective #Continuity #Governance_and_Ecosystem </t>
   </si>
   <si>
     <t xml:space="preserve"> - monitored resources - evidence of resource monitoring and sizing - projection on future sizing</t>
@@ -1582,7 +1616,7 @@
     <t xml:space="preserve"> Ensure that information and other associated assets are protected against malicious programs.</t>
   </si>
   <si>
-    <t xml:space="preserve">#Preventive #Detective #Corrective #Privacy #Integrity #Availability #Protect #Detect #System_and_network_security #Information_protection #Protection #Defense</t>
+    <t xml:space="preserve">#Preventive #Detective #Corrective #Privacy #Integrity #Availability #Protect #Detective #System_and_network_security #Information_Protection  #Defense</t>
   </si>
   <si>
     <t xml:space="preserve"> 8.08</t>
@@ -1594,7 +1628,7 @@
     <t xml:space="preserve"> Prevent the exploitation of technical vulnerabilities.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Protect #Management_of_me_x0002_naces_and_vulnerabilities #Governance_and_Ecosystem #Protection #Defense</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Protect #Threat_and_Vulnerability_Management #Governance_and_Ecosystem  #Defense</t>
   </si>
   <si>
     <t xml:space="preserve"> - technical vulnerabilities obtained - analysis evidence - appropriate measures taken</t>
@@ -1615,7 +1649,7 @@
     <t xml:space="preserve">Ensure that hardware, software, services and networks operate properly with required security settings, and that the configuration is not altered by unauthorized or incorrect changes.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Secure_configuration #Protection</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Secure_configuration </t>
   </si>
   <si>
     <t xml:space="preserve"> - Systems concerned - configuration documentation - checks carried out</t>
@@ -1636,7 +1670,7 @@
     <t xml:space="preserve">Prevent unnecessary exposure of sensitive information and comply with legal, statutory, regulatory and contractual requirements relating to the deletion of information.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Protect #Protection_of_information #Regulation_and_compliance #Protection</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Protect #Information_Protection #Regulation_and_compliance </t>
   </si>
   <si>
     <t xml:space="preserve"> - Inventory of legal, statutory, regulatory and contractual requirements relating to the deletion of information - Information, devices and information affected - Evidence of secure deletion of information</t>
@@ -1657,7 +1691,7 @@
     <t xml:space="preserve"> Limit the exposure of sensitive data, including personal data, and comply with legal, statutory, regulatory and contractual requirements.</t>
   </si>
   <si>
-    <t xml:space="preserve">#Preventive #Confidentiality #Protect #Information_Protection #Protection</t>
+    <t xml:space="preserve">#Preventive #Confidentiality #Protect #Information_Protection </t>
   </si>
   <si>
     <t xml:space="preserve"> - Data masking procedure - Data concerned - Evidence of application of masking</t>
@@ -1678,7 +1712,7 @@
     <t xml:space="preserve"> Detect and prevent unauthorized disclosure and extraction of information by people or systems.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Detective #Confidentiality #Protect #Detect #Information_Protection #Protection #Defense</t>
+    <t xml:space="preserve"> #Preventive #Detective #Confidentiality #Protect #Detective #Information_Protection  #Defense</t>
   </si>
   <si>
     <t xml:space="preserve"> - Data leak prevention procedure - Data concerned - Proof of application of measures</t>
@@ -1699,7 +1733,7 @@
     <t xml:space="preserve"> Enable recovery in the event of data or systems loss.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Fix #Integrity #Availability #Restore #Continuity #Protection</t>
+    <t xml:space="preserve"> #Fix #Integrity #Availability #Restore #Continuity #Protect</t>
   </si>
   <si>
     <t xml:space="preserve"> - Backup policy - Backup copies - Backup copy tests</t>
@@ -1720,7 +1754,7 @@
     <t xml:space="preserve"> Ensure the continuous operation of information processing resources.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Availability #Protect #Continuity #Asset_management #Protection #Resilience</t>
+    <t xml:space="preserve"> #Preventive #Availability #Protect #Continuity #Asset_management  #Resilience</t>
   </si>
   <si>
     <t xml:space="preserve"> - Inventory of the information processing means concerned - requirement of availability - proof of redundancy</t>
@@ -1741,7 +1775,7 @@
     <t xml:space="preserve"> Record events, generate evidence, ensure the integrity of logging information, prevent unauthorized access, identify information security events that may result in an information security incident, and assist in investigations.</t>
   </si>
   <si>
-    <t xml:space="preserve">#Detective #Privacy #Integrity #Availability #Detect #Information_security_event_handling #Protection #Defense</t>
+    <t xml:space="preserve">#Detective #Privacy #Integrity #Availability #Detective #Information_security_event_handling #Protect #Defense</t>
   </si>
   <si>
     <t xml:space="preserve"> - log inventory - log protection measures - log storage - log analyzes</t>
@@ -1762,7 +1796,7 @@
     <t xml:space="preserve"> Detect abnormal behavior and possible information security incidents.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Detective #Correction #Privacy #Integrity #Availability #Detect #Respond #Information_Security_Event Management #Defense</t>
+    <t xml:space="preserve"> #Detective #Corrective #Privacy #Integrity #Availability #Detective #Respond #Information_Security_Event Management #Defense</t>
   </si>
   <si>
     <t xml:space="preserve"> Inventory of networks, systems and applications concerned - Detection measures implemented - Evaluation / Incidents detected</t>
@@ -1783,7 +1817,7 @@
     <t xml:space="preserve"> Enable the correlation and analysis of security events and other recorded data, assist in the investigation of information security incidents.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Detective #Integrity #Protect #Detect #Information_Security_Event_Management #Protection #Defense</t>
+    <t xml:space="preserve"> #Detective #Integrity #Protect #Detective #Information_Security_Event_handling  #Defense</t>
   </si>
   <si>
     <t xml:space="preserve"> inventory of clocks concerned - single time source - synchronization mechanism - effectiveness of synchronization</t>
@@ -1804,7 +1838,7 @@
     <t xml:space="preserve"> Ensure that the use of utility programs does not undermine the information security measures of systems and applications.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Privacy #Integrity #Availability #Protect #System &amp; Network Security #Secure_Configuration #Application_Security #Protection</t>
+    <t xml:space="preserve"> #Preventive #Privacy #Integrity #Availability #Protect #System_and_Network_Security #Secure_configuration #Application_Security </t>
   </si>
   <si>
     <t xml:space="preserve"> - inventory of utility programs - controls implemented</t>
@@ -1825,7 +1859,7 @@
     <t xml:space="preserve"> Ensure the integrity of operational systems and prevent the exploitation of technical vulnerabilities.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Privacy #Integrity #Availability #Protect #Secure_configuration #Application_security #Protection</t>
+    <t xml:space="preserve"> #Preventive #Privacy #Integrity #Availability #Protect #Secure_configuration #Application_Security </t>
   </si>
   <si>
     <t xml:space="preserve"> - installation control procedures - implementation of measures</t>
@@ -1846,7 +1880,7 @@
     <t xml:space="preserve">Protect information in networks and supporting information processing means against compromise via the network.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Detective #Privacy #Integrity #Availability #Protect #Detect #System_and_network_security #Protection</t>
+    <t xml:space="preserve"> #Preventive #Detective #Privacy #Integrity #Availability #Protect #Detective #System_and_network_security </t>
   </si>
   <si>
     <t xml:space="preserve"> - networks concerned - controls implemented - verification of controls</t>
@@ -1867,7 +1901,7 @@
     <t xml:space="preserve"> Ensure security when using network services.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #System_and_network_security #Protection</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #System_and_network_security </t>
   </si>
   <si>
     <t xml:space="preserve"> - Inventory of affected network services - Security mechanisms, service levels and identified management requirement</t>
@@ -1942,7 +1976,7 @@
     <t xml:space="preserve"> Ensure information security is designed and implemented during the secure software and systems development lifecycle.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Privacy #Integrity #Availability #Protect #Application_Security #System_and_Network_Security #Protection</t>
+    <t xml:space="preserve"> #Preventive #Privacy #Integrity #Availability #Protect #Application_Security #System_and_Network_Security </t>
   </si>
   <si>
     <t xml:space="preserve"> - development rules - developments carried out - proof of application of the rules</t>
@@ -1963,7 +1997,7 @@
     <t xml:space="preserve"> Ensure all information security requirements are identified and addressed during application development or acquisition.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Privacy #Integrity #Availability #Protect #Application_Security #System_and_Network_Security #Protection #Defense</t>
+    <t xml:space="preserve"> #Preventive #Privacy #Integrity #Availability #Protect #Application_Security #System_and_Network_Security  #Defense</t>
   </si>
   <si>
     <t xml:space="preserve"> - application services transmitted over public networks - protection measures</t>
@@ -2020,7 +2054,7 @@
     <t xml:space="preserve"> Validate compliance with information security requirements when applications or codes are deployed in the environment.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Privacy #Integrity #Availability #Identify #Application_Security #Information_Security_Assurance #System_and_Network_Security #Protection</t>
+    <t xml:space="preserve"> #Preventive #Privacy #Integrity #Availability #Identify #Application_Security #Information_Security #System_and_Network_Security #Protect</t>
   </si>
   <si>
     <t xml:space="preserve"> conformity test programs - new systems, updates and new versions - tests carried out</t>
@@ -2041,7 +2075,7 @@
     <t xml:space="preserve"> Ensure that information security measures required by the organization are implemented as part of outsourced systems development.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Detective #Privacy #Integrity #Availability #Identify #Protect #Detect #System_and_Network_Security #Application_Security #Supplier_Relationships_Security #Governance_and_Ecosystem #Protection</t>
+    <t xml:space="preserve"> #Preventive #Detective #Privacy #Integrity #Availability #Identify #Protect #Detective #System_and_Network_Security #Application_Security #Supplier_Relations #Governance_and_Ecosystem </t>
   </si>
   <si>
     <t xml:space="preserve"> - outsourced developments - controls carried out</t>
@@ -2101,7 +2135,7 @@
     <t xml:space="preserve"> Ensure the relevance of the tests and the protection of the operational information used for the tests.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Protect #Protection_of_information #Protection</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Protect #Information_Protection </t>
   </si>
   <si>
     <t xml:space="preserve"> - inventory of environments containing test data - protective measures applied (anonymization)</t>
@@ -2122,7 +2156,7 @@
     <t xml:space="preserve"> Minimize the impact of audit and other assurance activities on operational systems and business processes.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #System_and_network_security #Information_protection #Governance_and_Ecosystem #Protection</t>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #System_and_network_security #Information_Protection #Governance_and_Ecosystem </t>
   </si>
   <si>
     <t xml:space="preserve"> - audit requirements and activities involving checks on operating systems - forecasting and validation of activities - disruptions caused by these checks</t>
@@ -2195,7 +2229,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2225,6 +2259,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2274,19 +2314,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2302,15 +2342,121 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B105" activeCellId="0" sqref="B105"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2318,44 +2464,44 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="54.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="2" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="54.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="1" width="50"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2365,26 +2511,26 @@
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2394,26 +2540,26 @@
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2423,26 +2569,26 @@
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -2452,29 +2598,29 @@
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -2484,29 +2630,29 @@
       <c r="C6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -2516,29 +2662,29 @@
       <c r="C7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -2548,29 +2694,29 @@
       <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -2580,29 +2726,29 @@
       <c r="C9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -2612,29 +2758,29 @@
       <c r="C10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -2644,29 +2790,29 @@
       <c r="C11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -2676,29 +2822,29 @@
       <c r="C12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -2708,29 +2854,29 @@
       <c r="C13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -2740,29 +2886,29 @@
       <c r="C14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -2772,29 +2918,29 @@
       <c r="C15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -2804,29 +2950,29 @@
       <c r="C16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -2836,29 +2982,29 @@
       <c r="C17" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -2868,29 +3014,29 @@
       <c r="C18" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -2900,29 +3046,29 @@
       <c r="C19" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -2932,29 +3078,29 @@
       <c r="C20" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -2964,29 +3110,29 @@
       <c r="C21" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -2996,29 +3142,29 @@
       <c r="C22" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -3028,29 +3174,29 @@
       <c r="C23" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -3060,29 +3206,29 @@
       <c r="C24" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -3092,29 +3238,29 @@
       <c r="C25" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -3124,29 +3270,29 @@
       <c r="C26" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -3156,29 +3302,29 @@
       <c r="C27" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -3188,29 +3334,29 @@
       <c r="C28" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -3220,29 +3366,29 @@
       <c r="C29" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -3252,29 +3398,29 @@
       <c r="C30" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -3284,29 +3430,29 @@
       <c r="C31" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -3316,29 +3462,29 @@
       <c r="C32" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -3348,29 +3494,29 @@
       <c r="C33" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -3380,29 +3526,29 @@
       <c r="C34" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -3412,29 +3558,29 @@
       <c r="C35" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
@@ -3444,29 +3590,29 @@
       <c r="C36" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
@@ -3476,29 +3622,29 @@
       <c r="C37" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
@@ -3508,29 +3654,29 @@
       <c r="C38" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3540,29 +3686,29 @@
       <c r="C39" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
@@ -3572,29 +3718,29 @@
       <c r="C40" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -3604,29 +3750,29 @@
       <c r="C41" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
@@ -3636,26 +3782,26 @@
       <c r="C42" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>300</v>
       </c>
@@ -3665,29 +3811,29 @@
       <c r="C43" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J43" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>300</v>
       </c>
@@ -3697,29 +3843,29 @@
       <c r="C44" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I44" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J44" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>300</v>
       </c>
@@ -3729,29 +3875,29 @@
       <c r="C45" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="J45" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>300</v>
       </c>
@@ -3761,29 +3907,29 @@
       <c r="C46" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J46" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>300</v>
       </c>
@@ -3793,29 +3939,29 @@
       <c r="C47" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I47" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J47" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>300</v>
       </c>
@@ -3825,29 +3971,29 @@
       <c r="C48" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J48" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>300</v>
       </c>
@@ -3857,29 +4003,29 @@
       <c r="C49" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H49" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J49" s="3" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>300</v>
       </c>
@@ -3889,29 +4035,29 @@
       <c r="C50" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J50" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>10</v>
       </c>
@@ -3921,26 +4067,26 @@
       <c r="C51" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I51" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="J51" s="3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>368</v>
       </c>
@@ -3950,29 +4096,29 @@
       <c r="C52" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J52" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>368</v>
       </c>
@@ -3982,29 +4128,29 @@
       <c r="C53" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I53" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J53" s="3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>368</v>
       </c>
@@ -4014,29 +4160,29 @@
       <c r="C54" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H54" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="I54" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="J54" s="3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>368</v>
       </c>
@@ -4046,29 +4192,29 @@
       <c r="C55" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="H55" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I55" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="J55" s="3" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>368</v>
       </c>
@@ -4078,29 +4224,29 @@
       <c r="C56" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H56" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J56" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>368</v>
       </c>
@@ -4110,29 +4256,29 @@
       <c r="C57" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="I57" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="J57" s="3" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>368</v>
       </c>
@@ -4142,29 +4288,29 @@
       <c r="C58" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H58" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I58" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="J58" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>368</v>
       </c>
@@ -4174,29 +4320,29 @@
       <c r="C59" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I59" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="J59" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>368</v>
       </c>
@@ -4206,29 +4352,29 @@
       <c r="C60" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I60" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="J60" s="3" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>368</v>
       </c>
@@ -4238,29 +4384,29 @@
       <c r="C61" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H61" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I61" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="J61" s="3" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>368</v>
       </c>
@@ -4270,29 +4416,29 @@
       <c r="C62" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="I62" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="J62" s="3" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>368</v>
       </c>
@@ -4302,29 +4448,29 @@
       <c r="C63" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H63" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="I63" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="J63" s="3" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>368</v>
       </c>
@@ -4334,29 +4480,29 @@
       <c r="C64" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H64" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="I64" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="J64" s="3" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>368</v>
       </c>
@@ -4366,29 +4512,29 @@
       <c r="C65" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H65" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="I65" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="J65" s="3" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>10</v>
       </c>
@@ -4398,26 +4544,26 @@
       <c r="C66" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="I66" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="J66" s="3" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>10</v>
       </c>
@@ -4427,26 +4573,26 @@
       <c r="C67" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H67" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="I67" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="J67" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>475</v>
       </c>
@@ -4456,29 +4602,29 @@
       <c r="C68" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G68" s="2" t="s">
+      <c r="F68" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="G68" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="H68" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="I68" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J68" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>475</v>
       </c>
@@ -4486,31 +4632,31 @@
         <v>476</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="D69" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="D69" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="E69" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="H69" s="2" t="s">
+      <c r="G69" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="H69" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="I69" s="3" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J69" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>475</v>
       </c>
@@ -4518,31 +4664,31 @@
         <v>476</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="D70" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="D70" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G70" s="2" t="s">
+      <c r="E70" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="F70" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="G70" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="H70" s="3" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I70" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>475</v>
       </c>
@@ -4550,31 +4696,31 @@
         <v>476</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="E71" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="D71" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="E71" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="F71" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="G71" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="I71" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J71" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>475</v>
       </c>
@@ -4582,31 +4728,31 @@
         <v>476</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="E72" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="D72" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="I72" s="2" t="s">
+      <c r="G72" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="I72" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J72" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>475</v>
       </c>
@@ -4614,31 +4760,31 @@
         <v>476</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E73" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="D73" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="E73" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="F73" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="G73" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="I73" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J73" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>475</v>
       </c>
@@ -4646,31 +4792,31 @@
         <v>476</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E74" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="D74" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="E74" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H74" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="I74" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="J74" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>475</v>
       </c>
@@ -4678,31 +4824,31 @@
         <v>476</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="E75" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="D75" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="E75" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="F75" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="G75" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="I75" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J75" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>475</v>
       </c>
@@ -4710,31 +4856,31 @@
         <v>476</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="E76" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="D76" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="E76" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="F76" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="G76" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="I76" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J76" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>475</v>
       </c>
@@ -4742,31 +4888,31 @@
         <v>476</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="E77" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="D77" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="E77" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="F77" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="G77" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="I77" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J77" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>475</v>
       </c>
@@ -4774,31 +4920,31 @@
         <v>476</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E78" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="D78" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="E78" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="F78" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="G78" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="I78" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J78" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>475</v>
       </c>
@@ -4806,31 +4952,31 @@
         <v>476</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="E79" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="D79" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="E79" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="F79" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="G79" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="I79" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J79" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>475</v>
       </c>
@@ -4838,31 +4984,31 @@
         <v>476</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="E80" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="D80" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="E80" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="F80" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="G80" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="I80" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J80" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>475</v>
       </c>
@@ -4870,31 +5016,31 @@
         <v>476</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="E81" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="D81" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="E81" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="F81" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="G81" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="I81" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J81" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>475</v>
       </c>
@@ -4902,31 +5048,31 @@
         <v>476</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="E82" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="D82" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="E82" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="F82" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="G82" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="I82" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J82" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>475</v>
       </c>
@@ -4934,31 +5080,31 @@
         <v>476</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="E83" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="D83" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="E83" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="F83" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="G83" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="I83" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J83" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J83" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>475</v>
       </c>
@@ -4966,31 +5112,31 @@
         <v>476</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="E84" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="D84" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="E84" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="F84" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="G84" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="I84" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J84" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>475</v>
       </c>
@@ -4998,31 +5144,31 @@
         <v>476</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="E85" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="D85" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="E85" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="F85" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="G85" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="I85" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J85" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>475</v>
       </c>
@@ -5030,31 +5176,31 @@
         <v>476</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="E86" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="D86" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="E86" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="F86" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="G86" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="I86" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J86" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>475</v>
       </c>
@@ -5062,31 +5208,31 @@
         <v>476</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="E87" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="D87" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="E87" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="F87" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="G87" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="I87" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J87" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>475</v>
       </c>
@@ -5094,31 +5240,31 @@
         <v>476</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="E88" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="D88" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="E88" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="F88" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="G88" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="I88" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J88" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>475</v>
       </c>
@@ -5126,31 +5272,31 @@
         <v>476</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="E89" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="G89" s="2" t="s">
+      <c r="D89" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="E89" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="F89" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="I89" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J89" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>475</v>
       </c>
@@ -5158,31 +5304,31 @@
         <v>476</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="E90" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="G90" s="2" t="s">
+      <c r="D90" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="E90" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="F90" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="I90" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J90" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>475</v>
       </c>
@@ -5190,31 +5336,31 @@
         <v>476</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="E91" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="G91" s="2" t="s">
+      <c r="D91" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="E91" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="F91" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="I91" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J91" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>475</v>
       </c>
@@ -5222,31 +5368,31 @@
         <v>476</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="E92" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="D92" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="E92" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="F92" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="I92" s="2" t="s">
+      <c r="G92" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="I92" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J92" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>475</v>
       </c>
@@ -5254,31 +5400,31 @@
         <v>476</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="E93" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="D93" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="E93" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="F93" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="G93" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="I93" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J93" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>475</v>
       </c>
@@ -5286,31 +5432,31 @@
         <v>476</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="E94" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="G94" s="2" t="s">
+      <c r="D94" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="E94" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="I94" s="2" t="s">
+      <c r="F94" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I94" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J94" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>475</v>
       </c>
@@ -5318,31 +5464,31 @@
         <v>476</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="E95" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="G95" s="2" t="s">
+      <c r="D95" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="H95" s="2" t="s">
+      <c r="E95" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="F95" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="I95" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J95" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>475</v>
       </c>
@@ -5350,31 +5496,31 @@
         <v>476</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="E96" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="D96" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="E96" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="F96" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="G96" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="I96" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J96" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>475</v>
       </c>
@@ -5382,31 +5528,31 @@
         <v>476</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="E97" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="D97" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="E97" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="F97" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="G97" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="J97" s="2" t="s">
+      <c r="H97" s="3" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I97" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>475</v>
       </c>
@@ -5414,31 +5560,31 @@
         <v>476</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="E98" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="G98" s="2" t="s">
+      <c r="D98" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="E98" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="I98" s="2" t="s">
+      <c r="F98" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="I98" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J98" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>475</v>
       </c>
@@ -5446,31 +5592,31 @@
         <v>476</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="E99" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="G99" s="2" t="s">
+      <c r="D99" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="H99" s="2" t="s">
+      <c r="E99" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="I99" s="2" t="s">
+      <c r="F99" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="I99" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J99" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>475</v>
       </c>
@@ -5478,31 +5624,31 @@
         <v>476</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="E100" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="D100" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="E100" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="F100" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="I100" s="2" t="s">
+      <c r="G100" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="I100" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J100" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>475</v>
       </c>
@@ -5510,31 +5656,31 @@
         <v>476</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="E101" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="D101" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="E101" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="H101" s="2" t="s">
+      <c r="F101" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="I101" s="2" t="s">
+      <c r="G101" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="I101" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J101" s="2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J101" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>10</v>
       </c>
@@ -5542,28 +5688,28 @@
         <v>11</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="E102" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="D102" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="E102" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="G102" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="I102" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J102" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>10</v>
       </c>
@@ -5571,28 +5717,28 @@
         <v>11</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="E103" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="D103" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="H103" s="2" t="s">
+      <c r="E103" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="I103" s="2" t="s">
+      <c r="G103" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="I103" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J103" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>10</v>
       </c>
@@ -5600,25 +5746,25 @@
         <v>11</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="E104" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="D104" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="H104" s="2" t="s">
+      <c r="E104" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="I104" s="2" t="s">
+      <c r="G104" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="I104" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>721</v>
+      <c r="J104" s="3" t="s">
+        <v>723</v>
       </c>
     </row>
   </sheetData>

--- a/storage/app/repository/ISO27001-2022.en.xlsx
+++ b/storage/app/repository/ISO27001-2022.en.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name=" Worksheet" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name=" Worksheet" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="725">
+  <si>
+    <t xml:space="preserve">Framework</t>
+  </si>
   <si>
     <t xml:space="preserve">Domain</t>
   </si>
@@ -805,35 +808,7 @@
     <t xml:space="preserve">Ensure compliance with legal, statutory, regulatory and contractual requirements, as well as company or community expectations relating to the protection and availability of records.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Protect #Regulation_and_compliance #Asset_Management </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">#Information_Protection</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> #Defense</t>
-    </r>
+    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Protect #Regulation_and_compliance #Asset_Management #Information_Protection #Defense</t>
   </si>
   <si>
     <t xml:space="preserve"> - recording protection measures - legal, regulatory, contractual and business requirements - Inventory of key information sources</t>
@@ -2229,7 +2204,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2259,12 +2234,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2309,13 +2278,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2342,168 +2315,66 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="54.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="1" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="54.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="1" width="50"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -2511,1299 +2382,1422 @@
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>30</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>40</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>48</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K7" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K8" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K9" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="4" t="s">
         <v>80</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="I11" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="I12" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="I13" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K15" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J16" s="3" t="s">
+      <c r="I16" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="I17" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J17" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="I18" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J18" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="I19" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J19" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="G20" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="I20" s="4" t="s">
         <v>150</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="F21" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="G21" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="I21" s="4" t="s">
         <v>156</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="F22" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="G22" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="4" t="s">
         <v>163</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="C23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="I23" s="4" t="s">
         <v>170</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H24" s="3" t="s">
+      <c r="G24" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J24" s="3" t="s">
+      <c r="I24" s="4" t="s">
         <v>175</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="C25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="E25" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H25" s="3" t="s">
+      <c r="G25" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="I25" s="4" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J25" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="C26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J26" s="3" t="s">
+      <c r="I26" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J26" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="C27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J27" s="3" t="s">
+      <c r="I27" s="4" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J27" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="C28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J28" s="3" t="s">
+      <c r="I28" s="4" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J28" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="C29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="4" t="s">
         <v>208</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="C30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J30" s="3" t="s">
+      <c r="I30" s="4" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J30" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="C31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J31" s="3" t="s">
+      <c r="I31" s="4" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J32" s="3" t="s">
+      <c r="I32" s="4" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J32" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="C33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J33" s="3" t="s">
+      <c r="I33" s="4" t="s">
         <v>236</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="C34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J34" s="3" t="s">
+      <c r="I34" s="4" t="s">
         <v>243</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="C35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J35" s="3" t="s">
+      <c r="I35" s="4" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J35" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="C36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J36" s="3" t="s">
+      <c r="I36" s="4" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J36" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="C37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J37" s="3" t="s">
+      <c r="I37" s="4" t="s">
         <v>264</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="C38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J38" s="3" t="s">
+      <c r="I38" s="4" t="s">
         <v>271</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="C39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="I39" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J39" s="3" t="s">
+      <c r="I39" s="4" t="s">
         <v>278</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="C40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J40" s="3" t="s">
+      <c r="I40" s="4" t="s">
         <v>285</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="C41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I41" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J41" s="4" t="s">
         <v>293</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="F42" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="3" t="s">
+      <c r="I42" s="4" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>301</v>
@@ -3811,284 +3805,311 @@
       <c r="C43" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="4" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K43" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>301</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D44" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G44" s="3" t="s">
+      <c r="F44" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="G44" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I44" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="4" t="s">
         <v>316</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>301</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D45" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="4" t="s">
         <v>324</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>301</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D46" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I46" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J46" s="4" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K46" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>301</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D47" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="4" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K47" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>301</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D48" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J48" s="3" t="s">
+      <c r="I48" s="4" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J48" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>301</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D49" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J49" s="3" t="s">
+      <c r="I49" s="4" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J49" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>301</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D50" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J50" s="3" t="s">
+      <c r="I50" s="4" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J50" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="F51" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="I51" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J51" s="3" t="s">
+      <c r="I51" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>368</v>
+        <v>11</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>369</v>
@@ -4096,505 +4117,553 @@
       <c r="C52" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="J52" s="3" t="s">
+      <c r="I52" s="4" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J52" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>368</v>
+        <v>11</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>369</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D53" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J53" s="3" t="s">
+      <c r="I53" s="4" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J53" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>368</v>
+        <v>11</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>369</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D54" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G54" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="J54" s="3" t="s">
+      <c r="I54" s="4" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J54" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>368</v>
+        <v>11</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>369</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D55" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G55" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="I55" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="J55" s="3" t="s">
+      <c r="I55" s="4" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J55" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>368</v>
+        <v>11</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>369</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D56" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="G56" s="3" t="s">
+      <c r="F56" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="G56" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H56" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="I56" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J56" s="3" t="s">
+      <c r="I56" s="4" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J56" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>368</v>
+        <v>11</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>369</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D57" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="G57" s="3" t="s">
+      <c r="F57" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="G57" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J57" s="3" t="s">
+      <c r="I57" s="4" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J57" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>368</v>
+        <v>11</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>369</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D58" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="J58" s="3" t="s">
+      <c r="I58" s="4" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J58" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>368</v>
+        <v>11</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>369</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D59" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="G59" s="3" t="s">
+      <c r="F59" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="G59" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="H59" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="J59" s="3" t="s">
+      <c r="I59" s="4" t="s">
         <v>422</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>368</v>
+        <v>11</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>369</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D60" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="G60" s="3" t="s">
+      <c r="F60" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="G60" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="H60" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J60" s="3" t="s">
+      <c r="I60" s="4" t="s">
         <v>428</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>368</v>
+        <v>11</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>369</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D61" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="G61" s="3" t="s">
+      <c r="F61" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="G61" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="I61" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="J61" s="3" t="s">
+      <c r="I61" s="4" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J61" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>368</v>
+        <v>11</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>369</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D62" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G62" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H62" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="J62" s="3" t="s">
+      <c r="I62" s="4" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J62" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>368</v>
+        <v>11</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>369</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="D63" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H63" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="I63" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="J63" s="3" t="s">
+      <c r="I63" s="4" t="s">
         <v>448</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>368</v>
+        <v>11</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>369</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D64" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G64" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="H64" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="I64" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="J64" s="3" t="s">
+      <c r="I64" s="4" t="s">
         <v>455</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>368</v>
+        <v>11</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>369</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D65" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G65" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="H65" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="I65" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="J65" s="3" t="s">
+      <c r="I65" s="4" t="s">
         <v>462</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="F66" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H66" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J66" s="3" t="s">
+      <c r="I66" s="4" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J66" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="D67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="F67" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="H67" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="I67" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J67" s="3" t="s">
+      <c r="I67" s="4" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J67" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>476</v>
@@ -4602,1169 +4671,1280 @@
       <c r="C68" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G68" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H68" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="I68" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J68" s="3" t="s">
+      <c r="I68" s="4" t="s">
         <v>483</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="D69" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G69" s="3" t="s">
+      <c r="F69" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="G69" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H69" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="I69" s="3" t="s">
+      <c r="I69" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="J69" s="3" t="s">
+      <c r="J69" s="4" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K69" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="D70" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="G70" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="H70" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="I70" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="J70" s="4" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K70" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="D71" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F71" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G71" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="H71" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="I71" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="J71" s="3" t="s">
+      <c r="I71" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J71" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D72" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="F72" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="G72" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H72" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="I72" s="4" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J72" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="D73" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F73" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G73" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="H73" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="I73" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="J73" s="3" t="s">
+      <c r="I73" s="4" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J73" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="D74" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="H74" s="3" t="s">
+      <c r="G74" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="H74" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="I74" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="J74" s="4" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K74" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="D75" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="H75" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="I75" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J75" s="3" t="s">
+      <c r="I75" s="4" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J75" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D76" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="G76" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="H76" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J76" s="3" t="s">
+      <c r="I76" s="4" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J76" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="D77" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F77" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G77" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="H77" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="I77" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J77" s="3" t="s">
+      <c r="I77" s="4" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J77" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="D78" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F78" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G78" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="H78" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="I78" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J78" s="3" t="s">
+      <c r="I78" s="4" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J78" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D79" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F79" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G79" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="H79" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="I79" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J79" s="3" t="s">
+      <c r="I79" s="4" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J79" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="D80" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F80" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G80" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="H80" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="I80" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="J80" s="3" t="s">
+      <c r="I80" s="4" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J80" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="D81" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G81" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="H81" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J81" s="3" t="s">
+      <c r="I81" s="4" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J81" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D82" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F82" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="G82" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="H82" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="I82" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J82" s="3" t="s">
+      <c r="I82" s="4" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J82" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="D83" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="G83" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="H83" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J83" s="3" t="s">
+      <c r="I83" s="4" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J83" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="D84" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F84" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G84" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="H84" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="I84" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J84" s="3" t="s">
+      <c r="I84" s="4" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J84" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="D85" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F85" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G85" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="H85" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="I85" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="J85" s="3" t="s">
+      <c r="I85" s="4" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J85" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="D86" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="G86" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="H86" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="I86" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J86" s="3" t="s">
+      <c r="I86" s="4" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J86" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="D87" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F87" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="G87" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="H87" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="I87" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J87" s="3" t="s">
+      <c r="I87" s="4" t="s">
         <v>613</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="D88" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F88" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G88" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="H88" s="3" t="s">
+      <c r="H88" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="I88" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J88" s="3" t="s">
+      <c r="I88" s="4" t="s">
         <v>620</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="D89" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="G89" s="3" t="s">
+      <c r="F89" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="G89" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="H89" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J89" s="3" t="s">
+      <c r="I89" s="4" t="s">
         <v>626</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="D90" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="G90" s="3" t="s">
+      <c r="F90" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="H90" s="3" t="s">
+      <c r="G90" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="H90" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="I90" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J90" s="3" t="s">
+      <c r="I90" s="4" t="s">
         <v>632</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="D91" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="G91" s="3" t="s">
+      <c r="F91" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="G91" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="H91" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="J91" s="3" t="s">
+      <c r="I91" s="4" t="s">
         <v>638</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="D92" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F92" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="G92" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="H92" s="3" t="s">
+      <c r="H92" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="I92" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J92" s="3" t="s">
+      <c r="I92" s="4" t="s">
         <v>645</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="D93" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="F93" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="G93" s="3" t="s">
+      <c r="G93" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="H93" s="3" t="s">
+      <c r="H93" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="I93" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J93" s="3" t="s">
+      <c r="I93" s="4" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J93" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="D94" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="G94" s="3" t="s">
+      <c r="F94" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="H94" s="3" t="s">
+      <c r="G94" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="H94" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J94" s="3" t="s">
+      <c r="I94" s="4" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J94" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="D95" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="G95" s="3" t="s">
+      <c r="F95" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="H95" s="3" t="s">
+      <c r="G95" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="H95" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="I95" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J95" s="3" t="s">
+      <c r="I95" s="4" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J95" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="D96" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="F96" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="G96" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="H96" s="3" t="s">
+      <c r="H96" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="I96" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="J96" s="3" t="s">
+      <c r="I96" s="4" t="s">
         <v>671</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="D97" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="F97" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="G97" s="3" t="s">
+      <c r="G97" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="H97" s="3" t="s">
+      <c r="H97" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="I97" s="3" t="s">
+      <c r="I97" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="J97" s="3" t="s">
+      <c r="J97" s="4" t="s">
         <v>679</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="D98" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="G98" s="3" t="s">
+      <c r="F98" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="H98" s="3" t="s">
+      <c r="G98" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="H98" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="I98" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J98" s="3" t="s">
+      <c r="I98" s="4" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J98" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="D99" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="F99" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="G99" s="3" t="s">
+      <c r="F99" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="H99" s="3" t="s">
+      <c r="G99" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="H99" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="I99" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J99" s="3" t="s">
+      <c r="I99" s="4" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J99" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="D100" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="F100" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="G100" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="H100" s="3" t="s">
+      <c r="H100" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J100" s="3" t="s">
+      <c r="I100" s="4" t="s">
         <v>698</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="D101" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="F101" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="G101" s="3" t="s">
+      <c r="G101" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="H101" s="3" t="s">
+      <c r="H101" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J101" s="3" t="s">
+      <c r="I101" s="4" t="s">
         <v>705</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="D102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="F102" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="H102" s="3" t="s">
+      <c r="H102" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J102" s="3" t="s">
+      <c r="I102" s="4" t="s">
         <v>711</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="D103" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E103" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="G103" s="3" t="s">
+      <c r="F103" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="H103" s="3" t="s">
+      <c r="H103" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="I103" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J103" s="3" t="s">
+      <c r="I103" s="4" t="s">
         <v>717</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="D104" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="G104" s="3" t="s">
+      <c r="F104" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="H104" s="3" t="s">
+      <c r="H104" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="I104" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J104" s="3" t="s">
+      <c r="I104" s="4" t="s">
         <v>723</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>724</v>
       </c>
     </row>
   </sheetData>

--- a/storage/app/repository/ISO27001-2022.en.xlsx
+++ b/storage/app/repository/ISO27001-2022.en.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">ISMS</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1</t>
+    <t xml:space="preserve">27001:2022-10.1</t>
   </si>
   <si>
     <t xml:space="preserve"> Continuous improvement</t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve"> Continually improve the relevance, adequacy and effectiveness of the information security management system.</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2</t>
+    <t xml:space="preserve">27001:2022-10.2</t>
   </si>
   <si>
     <t xml:space="preserve"> Non-compliance and corrective actions</t>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">Implement a plan to manage non-conformities and corrective actions</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4.x</t>
+    <t xml:space="preserve">27001:2022- 4.x</t>
   </si>
   <si>
     <t xml:space="preserve"> Understanding the organization and its context</t>
@@ -124,7 +124,7 @@
     <t xml:space="preserve">Organizational controls</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.01</t>
+    <t xml:space="preserve">27001:2022- 5.01</t>
   </si>
   <si>
     <t xml:space="preserve"> Information Security Policies</t>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">Establish information security policy and thematic policies, have them approved by management, publish them, communicate them and seek confirmation from relevant staff and interested parties, as well as review at scheduled intervals and if significant changes occur.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.02</t>
+    <t xml:space="preserve">27001:2022- 5.02</t>
   </si>
   <si>
     <t xml:space="preserve"> Information Security Duties and Responsibilities</t>
@@ -172,7 +172,7 @@
     <t xml:space="preserve"> Define and assign all information security responsibilities.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.03</t>
+    <t xml:space="preserve">27001:2022- 5.03</t>
   </si>
   <si>
     <t xml:space="preserve"> Segregation of duties</t>
@@ -196,7 +196,7 @@
     <t xml:space="preserve"> Separate incompatible tasks and areas of responsibility.</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04</t>
+    <t xml:space="preserve">27001:2022-5.04</t>
   </si>
   <si>
     <t xml:space="preserve"> Management Responsibilities</t>
@@ -220,7 +220,7 @@
     <t xml:space="preserve"> Issue a management communication on the importance of information security to the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.05</t>
+    <t xml:space="preserve">27001:2022- 5.05</t>
   </si>
   <si>
     <t xml:space="preserve"> Relations with the authorities</t>
@@ -244,7 +244,7 @@
     <t xml:space="preserve"> Appropriate relations with the competent authorities must be maintained.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.06</t>
+    <t xml:space="preserve">27001:2022- 5.06</t>
   </si>
   <si>
     <t xml:space="preserve"> Relations with specialized working groups</t>
@@ -268,7 +268,7 @@
     <t xml:space="preserve"> Review the procedure, update the inventory and maintain relationships with specialist groups.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.07</t>
+    <t xml:space="preserve">27001:2022- 5.07</t>
   </si>
   <si>
     <t xml:space="preserve"> Threat intelligence</t>
@@ -289,7 +289,7 @@
     <t xml:space="preserve"> Collect and analyze threat information.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.08</t>
+    <t xml:space="preserve">27001:2022- 5.08</t>
   </si>
   <si>
     <t xml:space="preserve"> Information Security in Project Management</t>
@@ -310,7 +310,7 @@
     <t xml:space="preserve"> Integrate information security into the organization's project management activities.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.09</t>
+    <t xml:space="preserve">27001:2022- 5.09</t>
   </si>
   <si>
     <t xml:space="preserve"> Inventory of information and other related assets</t>
@@ -331,7 +331,7 @@
     <t xml:space="preserve">Develop and maintain an inventory of information and other associated assets, including their owners.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.10</t>
+    <t xml:space="preserve">27001:2022- 5.10</t>
   </si>
   <si>
     <t xml:space="preserve"> Proper use of information and other associated assets</t>
@@ -352,7 +352,7 @@
     <t xml:space="preserve"> Identify, document and implement rules for the correct use and procedures for processing information and other associated assets.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.11</t>
+    <t xml:space="preserve">27001:2022- 5.11</t>
   </si>
   <si>
     <t xml:space="preserve"> Return of assets</t>
@@ -376,7 +376,7 @@
     <t xml:space="preserve"> Staff and other interested parties, as necessary, return all assets of the organization in their possession in the event of a change or termination of their employment relationship, employment contract or engagement.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.12</t>
+    <t xml:space="preserve">27001:2022- 5.12</t>
   </si>
   <si>
     <t xml:space="preserve"> Classification of information</t>
@@ -397,7 +397,7 @@
     <t xml:space="preserve"> Classify information in accordance with the organization's information security needs in terms of confidentiality, integrity, availability and the requirements of interested parties.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.13</t>
+    <t xml:space="preserve">27001:2022- 5.13</t>
   </si>
   <si>
     <t xml:space="preserve"> Marking information</t>
@@ -418,7 +418,7 @@
     <t xml:space="preserve"> Review the information marking procedure and its application</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.14</t>
+    <t xml:space="preserve">27001:2022- 5.14</t>
   </si>
   <si>
     <t xml:space="preserve"> Transfer of information</t>
@@ -439,7 +439,7 @@
     <t xml:space="preserve"> Implement policies, procedures and formal transfer measures to protect the transfer of information passing through all types of communication equipment.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.15</t>
+    <t xml:space="preserve">27001:2022- 5.15</t>
   </si>
   <si>
     <t xml:space="preserve"> Access control</t>
@@ -460,7 +460,7 @@
     <t xml:space="preserve"> Establish, document and review the access control policy</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.16</t>
+    <t xml:space="preserve">27001:2022- 5.16</t>
   </si>
   <si>
     <t xml:space="preserve"> Identity management</t>
@@ -478,7 +478,7 @@
     <t xml:space="preserve"> Manage the full lifecycle of identities.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.17</t>
+    <t xml:space="preserve">27001:2022- 5.17</t>
   </si>
   <si>
     <t xml:space="preserve"> Authentication information</t>
@@ -496,7 +496,7 @@
     <t xml:space="preserve"> Establish a formal process for managing the allocation of secret authentication information.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.18</t>
+    <t xml:space="preserve">27001:2022- 5.18</t>
   </si>
   <si>
     <t xml:space="preserve"> Access rights</t>
@@ -517,7 +517,7 @@
     <t xml:space="preserve">Access rights to information and other associated assets are provisioned, reviewed, modified and terminated in accordance with the organization's subject matter policy and access control rules.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.19</t>
+    <t xml:space="preserve">27001:2022- 5.19</t>
   </si>
   <si>
     <t xml:space="preserve"> Information security in supplier relationships</t>
@@ -538,7 +538,7 @@
     <t xml:space="preserve">Define and obtain acceptance from suppliers of information security requirements to limit risks resulting from these suppliers' access to the organization's assets.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.20</t>
+    <t xml:space="preserve">27001:2022- 5.20</t>
   </si>
   <si>
     <t xml:space="preserve"> Consideration of information security in agreements concluded with suppliers</t>
@@ -553,7 +553,7 @@
     <t xml:space="preserve"> Establish and agree with each provider that can access, process, store, communicate or provide components of the IT infrastructure intended for the organization's information, applicable requirements related to information security.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.21</t>
+    <t xml:space="preserve">27001:2022- 5.21</t>
   </si>
   <si>
     <t xml:space="preserve"> Information security management in the ICT supply chain</t>
@@ -568,7 +568,7 @@
     <t xml:space="preserve"> Include in agreements with vendors requirements for addressing information security risks associated with the supply chain of IT products and services.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.22</t>
+    <t xml:space="preserve">27001:2022- 5.22</t>
   </si>
   <si>
     <t xml:space="preserve"> Follow-up, review and change management of supplier services</t>
@@ -589,7 +589,7 @@
     <t xml:space="preserve"> Monitor, verify and audit the delivery of services provided by suppliers at regular intervals.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.23</t>
+    <t xml:space="preserve">27001:2022- 5.23</t>
   </si>
   <si>
     <t xml:space="preserve"> Information security in the use of cloud services</t>
@@ -610,7 +610,7 @@
     <t xml:space="preserve"> Define and monitor processes for acquiring, using, managing and terminating cloud services in accordance with the organization's information security requirements</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.24</t>
+    <t xml:space="preserve">27001:2022- 5.24</t>
   </si>
   <si>
     <t xml:space="preserve"> Information security incident management planning and preparation</t>
@@ -631,7 +631,7 @@
     <t xml:space="preserve"> Establish responsibilities and procedures to ensure a rapid, effective and relevant response in the event of an information security incident.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.25</t>
+    <t xml:space="preserve">27001:2022- 5.25</t>
   </si>
   <si>
     <t xml:space="preserve"> Assessment of events related to information security and decision-making</t>
@@ -652,7 +652,7 @@
     <t xml:space="preserve"> Review the incident assessment process</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.26</t>
+    <t xml:space="preserve">27001:2022- 5.26</t>
   </si>
   <si>
     <t xml:space="preserve">Response to information security incidents</t>
@@ -673,7 +673,7 @@
     <t xml:space="preserve"> Handle information security incidents in accordance with documented procedures.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.27</t>
+    <t xml:space="preserve">27001:2022- 5.27</t>
   </si>
   <si>
     <t xml:space="preserve"> Learning from Information Security Incidents</t>
@@ -694,7 +694,7 @@
     <t xml:space="preserve"> Use knowledge gained from incident analysis and resolution to reduce the likelihood or impact of future incidents.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.28</t>
+    <t xml:space="preserve">27001:2022- 5.28</t>
   </si>
   <si>
     <t xml:space="preserve"> Collection of evidence</t>
@@ -715,7 +715,7 @@
     <t xml:space="preserve"> Define and apply procedures for identifying, collecting, acquiring and protecting information that can be used as evidence.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.29</t>
+    <t xml:space="preserve">27001:2022- 5.29</t>
   </si>
   <si>
     <t xml:space="preserve"> Information security during a disruption</t>
@@ -736,7 +736,7 @@
     <t xml:space="preserve">Determine your requirements for information security and continuity of information security management in unfavorable situations, such as during a crisis or disaster.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.30</t>
+    <t xml:space="preserve">27001:2022- 5.30</t>
   </si>
   <si>
     <t xml:space="preserve"> ICT readiness for business continuity</t>
@@ -757,7 +757,7 @@
     <t xml:space="preserve"> Identify business continuity objectives and ICT continuity requirements. Perform continuity tests.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.31</t>
+    <t xml:space="preserve">27001:2022- 5.31</t>
   </si>
   <si>
     <t xml:space="preserve"> Identification of legal, statutory, regulatory and contractual requirements</t>
@@ -778,7 +778,7 @@
     <t xml:space="preserve"> Explicitly define, document, and update all applicable legal, statutory, regulatory, and contractual requirements, and the organization's approach to meeting those requirements for each information system and for the organization itself .</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.32</t>
+    <t xml:space="preserve">27001:2022- 5.32</t>
   </si>
   <si>
     <t xml:space="preserve"> Intellectual property rights</t>
@@ -799,7 +799,7 @@
     <t xml:space="preserve"> Implement appropriate procedures to ensure compliance with legal, regulatory and contractual requirements relating to intellectual property and the use of proprietary software licenses.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.33</t>
+    <t xml:space="preserve">27001:2022- 5.33</t>
   </si>
   <si>
     <t xml:space="preserve"> Protection of recordings</t>
@@ -820,7 +820,7 @@
     <t xml:space="preserve">Protect records from loss, destruction, tampering, unauthorized access and unauthorized dissemination, in accordance with legal, regulatory, contractual and business requirements.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.34</t>
+    <t xml:space="preserve">27001:2022- 5.34</t>
   </si>
   <si>
     <t xml:space="preserve"> Personal data privacy and protection</t>
@@ -841,7 +841,7 @@
     <t xml:space="preserve">Guarantee the protection of privacy and the protection of personal data as required by applicable legislation or regulations, and contractual clauses where applicable.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.35</t>
+    <t xml:space="preserve">27001:2022- 5.35</t>
   </si>
   <si>
     <t xml:space="preserve"> Independent Information Security Review</t>
@@ -862,7 +862,7 @@
     <t xml:space="preserve"> Conduct an independent review of the organization's approach to managing and implementing information security (i.e. monitoring security objectives, measures, policies, procedures and processes relating to security information) and put in place a monitoring plan for the review.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.36</t>
+    <t xml:space="preserve">27001:2022- 5.36</t>
   </si>
   <si>
     <t xml:space="preserve"> Compliance with information security policies and standards</t>
@@ -883,7 +883,7 @@
     <t xml:space="preserve"> Examine information systems for compliance with the organization's information security policies and standards.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.37</t>
+    <t xml:space="preserve">27001:2022- 5.37</t>
   </si>
   <si>
     <t xml:space="preserve"> Documented operating procedures</t>
@@ -907,7 +907,7 @@
     <t xml:space="preserve"> Document and make available to the users concerned the operating procedures.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.x</t>
+    <t xml:space="preserve">27001:2022- 5.x</t>
   </si>
   <si>
     <t xml:space="preserve"> Leadership</t>
@@ -931,7 +931,7 @@
     <t xml:space="preserve">Personal controls</t>
   </si>
   <si>
-    <t xml:space="preserve"> 6.01</t>
+    <t xml:space="preserve">27001:2022- 6.01</t>
   </si>
   <si>
     <t xml:space="preserve"> Pre-selection</t>
@@ -955,7 +955,7 @@
     <t xml:space="preserve"> Update the procedure and perform checks on all job applicants.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 6.02</t>
+    <t xml:space="preserve">27001:2022- 6.02</t>
   </si>
   <si>
     <t xml:space="preserve"> General conditions of employment</t>
@@ -976,7 +976,7 @@
     <t xml:space="preserve"> Define the responsibilities and those of the organization in terms of information security in the contractual agreements between employees and subcontractors.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 6.03</t>
+    <t xml:space="preserve">27001:2022- 6.03</t>
   </si>
   <si>
     <t xml:space="preserve"> Information security awareness, learning and training</t>
@@ -1000,7 +1000,7 @@
     <t xml:space="preserve"> Raise awareness of information security among organizational personnel and interested parties, provide them with appropriate information security learning and training, and provide them with regular updates of the organization's policies and procedures. organization applicable to their function.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 6.04</t>
+    <t xml:space="preserve">27001:2022- 6.04</t>
   </si>
   <si>
     <t xml:space="preserve"> Disciplinary process</t>
@@ -1024,7 +1024,7 @@
     <t xml:space="preserve"> Formalize and communicate a disciplinary process for taking action against staff and other interested parties who have committed an information security policy violation.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 6.05</t>
+    <t xml:space="preserve">27001:2022- 6.05</t>
   </si>
   <si>
     <t xml:space="preserve"> Responsibilities following the end or modification of the service contract</t>
@@ -1048,7 +1048,7 @@
     <t xml:space="preserve"> Define the responsibilities and missions related to information security which remain valid following the termination, termination or modification of the employment contract.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 6.06</t>
+    <t xml:space="preserve">27001:2022- 6.06</t>
   </si>
   <si>
     <t xml:space="preserve"> Confidentiality or non-disclosure commitments</t>
@@ -1069,7 +1069,7 @@
     <t xml:space="preserve"> Identify, verify and document requirements for confidentiality or non-disclosure commitments.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 6.07</t>
+    <t xml:space="preserve">27001:2022- 6.07</t>
   </si>
   <si>
     <t xml:space="preserve"> Remote work</t>
@@ -1090,7 +1090,7 @@
     <t xml:space="preserve">Define and implement a policy and additional security measures to protect the information consulted, processed or stored on teleworking sites.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 6.08</t>
+    <t xml:space="preserve">27001:2022- 6.08</t>
   </si>
   <si>
     <t xml:space="preserve"> Reporting of Information Security Events</t>
@@ -1111,7 +1111,7 @@
     <t xml:space="preserve"> Report information security events as soon as possible through appropriate reporting lines.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 6.x</t>
+    <t xml:space="preserve">27001:2022- 6.x</t>
   </si>
   <si>
     <t xml:space="preserve"> Planning</t>
@@ -1135,7 +1135,7 @@
     <t xml:space="preserve">Physical controls</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7.01</t>
+    <t xml:space="preserve">27001:2022- 7.01</t>
   </si>
   <si>
     <t xml:space="preserve"> Physical security perimeter</t>
@@ -1156,7 +1156,7 @@
     <t xml:space="preserve"> Define security perimeters to protect areas containing sensitive or critical information and the means of processing the information.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7.02</t>
+    <t xml:space="preserve">27001:2022- 7.02</t>
   </si>
   <si>
     <t xml:space="preserve"> Physical access controls</t>
@@ -1177,7 +1177,7 @@
     <t xml:space="preserve"> Implement adequate controls upon entry to secure areas to ensure that only authorized personnel are admitted.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7.03</t>
+    <t xml:space="preserve">27001:2022- 7.03</t>
   </si>
   <si>
     <t xml:space="preserve"> Securing offices, rooms and equipment</t>
@@ -1198,7 +1198,7 @@
     <t xml:space="preserve">Design and apply physical security measures to offices, rooms and equipment.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7.04</t>
+    <t xml:space="preserve">27001:2022- 7.04</t>
   </si>
   <si>
     <t xml:space="preserve"> Physical Security Monitoring</t>
@@ -1219,7 +1219,7 @@
     <t xml:space="preserve"> Identify the premises concerned, identify the measures to be put in place and continuously monitor unauthorized physical access</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7.05</t>
+    <t xml:space="preserve">27001:2022- 7.05</t>
   </si>
   <si>
     <t xml:space="preserve"> Protection against physical and environmental threats</t>
@@ -1237,7 +1237,7 @@
     <t xml:space="preserve"> Design and implement physical protection measures against natural disasters, malicious attacks or accidents.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7.06</t>
+    <t xml:space="preserve">27001:2022- 7.06</t>
   </si>
   <si>
     <t xml:space="preserve"> Work in secure areas</t>
@@ -1255,7 +1255,7 @@
     <t xml:space="preserve"> Design and apply procedures for working in secure areas.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7.07</t>
+    <t xml:space="preserve">27001:2022- 7.07</t>
   </si>
   <si>
     <t xml:space="preserve"> Clean desktop and blank screen</t>
@@ -1276,7 +1276,7 @@
     <t xml:space="preserve"> - Review the clean desk policy for paper documents and removable storage media, - Raise user awareness about respecting the clean desk and locked screen policy</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7.08</t>
+    <t xml:space="preserve">27001:2022- 7.08</t>
   </si>
   <si>
     <t xml:space="preserve"> Location and protection of equipment</t>
@@ -1294,7 +1294,7 @@
     <t xml:space="preserve"> Protect materials against the risks associated with environmental threats and hazards and the possibility of unauthorized access.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7.09</t>
+    <t xml:space="preserve">27001:2022- 7.09</t>
   </si>
   <si>
     <t xml:space="preserve"> Off-Premises Asset Security</t>
@@ -1312,7 +1312,7 @@
     <t xml:space="preserve">Apply safety measures to materials used off-site, taking into account the various risks associated with off-site work.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7.10</t>
+    <t xml:space="preserve">27001:2022- 7.10</t>
   </si>
   <si>
     <t xml:space="preserve"> Storage media</t>
@@ -1330,7 +1330,7 @@
     <t xml:space="preserve"> Manage storage media through their lifecycle of acquisition, use, transportation, and disposal in accordance with the organization's classification plan and handling requirements.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7.11</t>
+    <t xml:space="preserve">27001:2022- 7.11</t>
   </si>
   <si>
     <t xml:space="preserve"> General services</t>
@@ -1351,7 +1351,7 @@
     <t xml:space="preserve"> Protect equipment from power outages and other disruptions due to failure of general services.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7.12</t>
+    <t xml:space="preserve">27001:2022- 7.12</t>
   </si>
   <si>
     <t xml:space="preserve"> Wiring Safety</t>
@@ -1372,7 +1372,7 @@
     <t xml:space="preserve">Protect electrical cables, carrying data or supporting information services against interception, interference or damage.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7.13</t>
+    <t xml:space="preserve">27001:2022- 7.13</t>
   </si>
   <si>
     <t xml:space="preserve"> Hardware Maintenance</t>
@@ -1393,7 +1393,7 @@
     <t xml:space="preserve"> Properly maintain equipment to guarantee its permanent availability and integrity.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7.14</t>
+    <t xml:space="preserve">27001:2022- 7.14</t>
   </si>
   <si>
     <t xml:space="preserve"> Safe disposal or recycling of equipment</t>
@@ -1414,7 +1414,7 @@
     <t xml:space="preserve"> Ensure that any sensitive data has been removed and any licensed software has been uninstalled or securely overwritten from hardware containing sensitive data before disposal or reuse.</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2</t>
+    <t xml:space="preserve">27001:2022-7.2</t>
   </si>
   <si>
     <t xml:space="preserve"> SKILLS</t>
@@ -1432,7 +1432,7 @@
     <t xml:space="preserve">Have the necessary resources with the skills required for ISMS management.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7.x</t>
+    <t xml:space="preserve">27001:2022- 7.x</t>
   </si>
   <si>
     <t xml:space="preserve"> Support</t>
@@ -1456,7 +1456,7 @@
     <t xml:space="preserve">Technical controls</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.01</t>
+    <t xml:space="preserve">27001:2022- 8.01</t>
   </si>
   <si>
     <t xml:space="preserve"> User terminals</t>
@@ -1477,7 +1477,7 @@
     <t xml:space="preserve"> Protect any information stored or processed on an end-user terminal or accessible via this type of device.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.02</t>
+    <t xml:space="preserve">27001:2022- 8.02</t>
   </si>
   <si>
     <t xml:space="preserve"> Access privileges</t>
@@ -1498,7 +1498,7 @@
     <t xml:space="preserve"> Restrict and control the allocation and use of privileged access rights</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.03</t>
+    <t xml:space="preserve">27001:2022- 8.03</t>
   </si>
   <si>
     <t xml:space="preserve">Restriction of access to information</t>
@@ -1522,7 +1522,7 @@
     <t xml:space="preserve"> Review restrictions on access to information and their application</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.04</t>
+    <t xml:space="preserve">27001:2022- 8.04</t>
   </si>
   <si>
     <t xml:space="preserve"> Access to source code</t>
@@ -1543,7 +1543,7 @@
     <t xml:space="preserve"> Restrict access to program source code.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.05</t>
+    <t xml:space="preserve">27001:2022- 8.05</t>
   </si>
   <si>
     <t xml:space="preserve"> Secure authentication</t>
@@ -1561,7 +1561,7 @@
     <t xml:space="preserve"> When required by access control policy, control access to systems and applications through a secure login procedure.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.06</t>
+    <t xml:space="preserve">27001:2022- 8.06</t>
   </si>
   <si>
     <t xml:space="preserve"> Sizing</t>
@@ -1582,7 +1582,7 @@
     <t xml:space="preserve"> Monitor and adjust resource usage and make projections on future sizing to ensure required system performance.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.07</t>
+    <t xml:space="preserve">27001:2022- 8.07</t>
   </si>
   <si>
     <t xml:space="preserve"> Protection against malware</t>
@@ -1594,7 +1594,7 @@
     <t xml:space="preserve">#Preventive #Detective #Corrective #Privacy #Integrity #Availability #Protect #Detective #System_and_network_security #Information_Protection  #Defense</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.08</t>
+    <t xml:space="preserve">27001:2022- 8.08</t>
   </si>
   <si>
     <t xml:space="preserve"> Management of technical vulnerabilities</t>
@@ -1615,7 +1615,7 @@
     <t xml:space="preserve"> Obtain information on technical vulnerabilities in information systems, assess the organization's exposure to these vulnerabilities and take appropriate action.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.09</t>
+    <t xml:space="preserve">27001:2022- 8.09</t>
   </si>
   <si>
     <t xml:space="preserve"> Configuration management</t>
@@ -1636,7 +1636,7 @@
     <t xml:space="preserve"> Check hardware, software, services, and networks to ensure that they are operating properly with required security settings, and that the configuration is not altered by unauthorized or incorrect changes.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.10</t>
+    <t xml:space="preserve">27001:2022- 8.10</t>
   </si>
   <si>
     <t xml:space="preserve"> Deletion of information</t>
@@ -1657,7 +1657,7 @@
     <t xml:space="preserve"> Delete information stored in information systems and devices when it is no longer useful.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.11</t>
+    <t xml:space="preserve">27001:2022- 8.11</t>
   </si>
   <si>
     <t xml:space="preserve"> Data masking</t>
@@ -1678,7 +1678,7 @@
     <t xml:space="preserve"> Use data masking in accordance with organizational access control policy and business requirements, while taking into account legal requirements.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.12</t>
+    <t xml:space="preserve">27001:2022- 8.12</t>
   </si>
   <si>
     <t xml:space="preserve"> Data leak prevention</t>
@@ -1699,7 +1699,7 @@
     <t xml:space="preserve"> Apply data leak prevention measures to systems, networks and terminals that process, store or transmit sensitive information.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.13</t>
+    <t xml:space="preserve">27001:2022- 8.13</t>
   </si>
   <si>
     <t xml:space="preserve"> Backing up information</t>
@@ -1720,7 +1720,7 @@
     <t xml:space="preserve"> Maintain backup copies of information, software and systems and test them regularly using the defined backup policy.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.14</t>
+    <t xml:space="preserve">27001:2022- 8.14</t>
   </si>
   <si>
     <t xml:space="preserve">Redundancy of information processing means</t>
@@ -1741,7 +1741,7 @@
     <t xml:space="preserve"> Implement information processing resources with sufficient redundancy to meet availability requirements.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.15</t>
+    <t xml:space="preserve">27001:2022- 8.15</t>
   </si>
   <si>
     <t xml:space="preserve"> Logging</t>
@@ -1762,7 +1762,7 @@
     <t xml:space="preserve"> Create, protect, store and analyze logs recording activities, exceptions, outages and other relevant events.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.16</t>
+    <t xml:space="preserve">27001:2022- 8.16</t>
   </si>
   <si>
     <t xml:space="preserve"> Monitoring activities</t>
@@ -1783,7 +1783,7 @@
     <t xml:space="preserve"> Monitor networks, systems and applications for abnormal behavior and take appropriate action to assess potential information security incidents.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.17</t>
+    <t xml:space="preserve">27001:2022- 8.17</t>
   </si>
   <si>
     <t xml:space="preserve"> Clock Synchronization</t>
@@ -1804,7 +1804,7 @@
     <t xml:space="preserve"> Synchronized to a single time reference source the clocks of all the relevant information processing systems of an organization or security domain.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.18</t>
+    <t xml:space="preserve">27001:2022- 8.18</t>
   </si>
   <si>
     <t xml:space="preserve"> Using Privileged Utility Programs</t>
@@ -1825,7 +1825,7 @@
     <t xml:space="preserve"> Take inventory of utility programs used to circumvent the security measures of a system or application, limit and closely control their use.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.19</t>
+    <t xml:space="preserve">27001:2022- 8.19</t>
   </si>
   <si>
     <t xml:space="preserve"> Installing software on operating systems</t>
@@ -1846,7 +1846,7 @@
     <t xml:space="preserve"> Implement procedures are implemented to control the installation of software in operational systems.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.20</t>
+    <t xml:space="preserve">27001:2022- 8.20</t>
   </si>
   <si>
     <t xml:space="preserve"> Network measures</t>
@@ -1867,7 +1867,7 @@
     <t xml:space="preserve"> Manage and control networks to protect information contained in systems and applications.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.21</t>
+    <t xml:space="preserve">27001:2022- 8.21</t>
   </si>
   <si>
     <t xml:space="preserve"> Network Services Security</t>
@@ -1888,7 +1888,7 @@
     <t xml:space="preserve"> For all network services, identify and integrate into network service agreements, security mechanisms, service levels and management requirements.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.22</t>
+    <t xml:space="preserve">27001:2022- 8.22</t>
   </si>
   <si>
     <t xml:space="preserve"> Internet filtering</t>
@@ -1906,7 +1906,7 @@
     <t xml:space="preserve"> Manage access to external websites to reduce exposure to malicious content.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.23</t>
+    <t xml:space="preserve">27001:2022- 8.23</t>
   </si>
   <si>
     <t xml:space="preserve"> Network partitioning</t>
@@ -1924,7 +1924,7 @@
     <t xml:space="preserve"> Partitioning groups of information services, users and information systems on the networks.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.24</t>
+    <t xml:space="preserve">27001:2022- 8.24</t>
   </si>
   <si>
     <t xml:space="preserve"> Use of cryptography</t>
@@ -1942,7 +1942,7 @@
     <t xml:space="preserve"> Define and implement rules relating to the use of cryptography, including the management of cryptographic keys.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.25</t>
+    <t xml:space="preserve">27001:2022- 8.25</t>
   </si>
   <si>
     <t xml:space="preserve"> Secure development lifecycle</t>
@@ -1963,7 +1963,7 @@
     <t xml:space="preserve"> Establish and apply software and systems development rules to the organization's developments.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.26</t>
+    <t xml:space="preserve">27001:2022- 8.26</t>
   </si>
   <si>
     <t xml:space="preserve"> Application security requirements</t>
@@ -1984,7 +1984,7 @@
     <t xml:space="preserve">Protect against fraudulent activity, contractual disputes, and unauthorized disclosure and modification of information related to application services transmitted over public networks.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.27</t>
+    <t xml:space="preserve">27001:2022- 8.27</t>
   </si>
   <si>
     <t xml:space="preserve"> Principles of secure system engineering and architecture</t>
@@ -2002,7 +2002,7 @@
     <t xml:space="preserve"> Establish and document systems security engineering principles, maintain them and apply them to all information systems implementation work.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.28</t>
+    <t xml:space="preserve">27001:2022- 8.28</t>
   </si>
   <si>
     <t xml:space="preserve"> Secure coding</t>
@@ -2020,7 +2020,7 @@
     <t xml:space="preserve"> Apply secure coding principles to software development.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.29</t>
+    <t xml:space="preserve">27001:2022- 8.29</t>
   </si>
   <si>
     <t xml:space="preserve"> Security testing in development and acceptance</t>
@@ -2041,7 +2041,7 @@
     <t xml:space="preserve"> Perform security functionality testing during development.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.30</t>
+    <t xml:space="preserve">27001:2022- 8.30</t>
   </si>
   <si>
     <t xml:space="preserve"> Outsourced development</t>
@@ -2065,7 +2065,7 @@
     <t xml:space="preserve"> Supervise and control the development activity of the outsourced system.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.31</t>
+    <t xml:space="preserve">27001:2022- 8.31</t>
   </si>
   <si>
     <t xml:space="preserve"> Separation of development, test and production environments</t>
@@ -2083,7 +2083,7 @@
     <t xml:space="preserve"> Separate development, test, and operating environments to reduce the risk of unauthorized access or changes to the operating environment.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.32</t>
+    <t xml:space="preserve">27001:2022- 8.32</t>
   </si>
   <si>
     <t xml:space="preserve"> Change Management</t>
@@ -2101,7 +2101,7 @@
     <t xml:space="preserve"> Control system changes within the development cycle through formal procedures.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.33</t>
+    <t xml:space="preserve">27001:2022- 8.33</t>
   </si>
   <si>
     <t xml:space="preserve"> Test Information</t>
@@ -2122,7 +2122,7 @@
     <t xml:space="preserve"> Carefully select, protect and control test data.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.34</t>
+    <t xml:space="preserve">27001:2022- 8.34</t>
   </si>
   <si>
     <t xml:space="preserve">Protection of information systems during audit and testing</t>
@@ -2143,7 +2143,7 @@
     <t xml:space="preserve">Carefully plan and validate audit requirements and activities involving checks on live systems to minimize disruption to business processes.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.x</t>
+    <t xml:space="preserve">27001:2022- 8.x</t>
   </si>
   <si>
     <t xml:space="preserve"> Functioning</t>
@@ -2161,7 +2161,7 @@
     <t xml:space="preserve"> Plan, implement and control the processes necessary to meet information security requirements; Carry out information security risk assessments; and Implement the information security risk treatment plan.</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2</t>
+    <t xml:space="preserve">27001:2022-9.2</t>
   </si>
   <si>
     <t xml:space="preserve"> Internal Audit</t>
@@ -2179,7 +2179,7 @@
     <t xml:space="preserve"> Define an internal audit plan. Carry out internal audits Follow audit recommendations in an action plan</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3</t>
+    <t xml:space="preserve">27001:2022-9.3</t>
   </si>
   <si>
     <t xml:space="preserve"> Management review</t>
@@ -2236,20 +2236,33 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE6EF"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -2278,7 +2291,11 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2287,19 +2304,31 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2312,6 +2341,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFDEE6EF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2322,3628 +2411,3642 @@
   </sheetPr>
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="54.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="1" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="25.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="54.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="3" width="50"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="4" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="6" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="7" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="11" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="8" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="8" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="A20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="22" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="23" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="24" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="25" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="8" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="A26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="8" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="A27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="A28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="A29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="8" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="A31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="8" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="A32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J32" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="8" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="A33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="8" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="1" t="s">
+    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="1" t="s">
+    <row r="35" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="J35" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" s="8" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="A36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="J36" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K36" s="8" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="A37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="J37" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="K37" s="8" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="1" t="s">
+    <row r="38" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I38" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J38" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="1" t="s">
+    <row r="39" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="J39" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="K39" s="8" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="1" t="s">
+    <row r="40" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="J40" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="8" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="1" t="s">
+    <row r="41" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I41" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="J41" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="K41" s="8" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="1" t="s">
+    <row r="42" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="G42" s="7"/>
+      <c r="H42" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="J42" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="8" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="A43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I43" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="J43" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="K43" s="8" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="A44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="J44" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="K44" s="8" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="1" t="s">
+    <row r="45" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I45" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="J45" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="K45" s="8" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="1" t="s">
+    <row r="46" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G46" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="I46" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="J46" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="K46" s="8" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="A47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I47" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="J47" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="K47" s="8" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="A48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I48" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="J48" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="K48" s="8" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="A49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I49" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="J49" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="K49" s="8" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="A50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="J50" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="K50" s="8" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="A51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="G51" s="7"/>
+      <c r="H51" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I51" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="J51" s="4" t="s">
+      <c r="J51" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="K51" s="8" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="A52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="I52" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="J52" s="4" t="s">
+      <c r="J52" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="K52" s="4" t="s">
+      <c r="K52" s="8" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="A53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G53" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H53" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="I53" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="J53" s="4" t="s">
+      <c r="J53" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K53" s="4" t="s">
+      <c r="K53" s="8" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="A54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G54" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H54" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="I54" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="J54" s="4" t="s">
+      <c r="J54" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="K54" s="4" t="s">
+      <c r="K54" s="8" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="A55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H55" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="I55" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="J55" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="K55" s="4" t="s">
+      <c r="K55" s="8" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="A56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G56" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H56" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="I56" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="J56" s="4" t="s">
+      <c r="J56" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K56" s="4" t="s">
+      <c r="K56" s="8" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="A57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G57" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H57" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="I57" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="J57" s="4" t="s">
+      <c r="J57" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K57" s="4" t="s">
+      <c r="K57" s="8" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="A58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H58" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="I58" s="4" t="s">
+      <c r="I58" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="J58" s="4" t="s">
+      <c r="J58" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="K58" s="4" t="s">
+      <c r="K58" s="8" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="A59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G59" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="H59" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="I59" s="4" t="s">
+      <c r="I59" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="J59" s="4" t="s">
+      <c r="J59" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="K59" s="4" t="s">
+      <c r="K59" s="8" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" s="1" t="s">
+    <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="G60" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H60" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="I60" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="J60" s="4" t="s">
+      <c r="J60" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="K60" s="4" t="s">
+      <c r="K60" s="8" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" s="1" t="s">
+    <row r="61" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G61" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H61" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="I61" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="J61" s="4" t="s">
+      <c r="J61" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="K61" s="4" t="s">
+      <c r="K61" s="8" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="A62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G62" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H62" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="I62" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="J62" s="4" t="s">
+      <c r="J62" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="K62" s="4" t="s">
+      <c r="K62" s="8" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="A63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G63" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="H63" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="I63" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="J63" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="K63" s="4" t="s">
+      <c r="K63" s="8" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="1" t="s">
+    <row r="64" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="G64" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="H64" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="I64" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="J64" s="4" t="s">
+      <c r="J64" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="K64" s="4" t="s">
+      <c r="K64" s="8" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" s="1" t="s">
+    <row r="65" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="G65" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H65" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="I65" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="J65" s="4" t="s">
+      <c r="J65" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="K65" s="4" t="s">
+      <c r="K65" s="8" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="1" t="s">
+    <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="G66" s="7"/>
+      <c r="H66" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="I66" s="4" t="s">
+      <c r="I66" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="J66" s="4" t="s">
+      <c r="J66" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K66" s="4" t="s">
+      <c r="K66" s="8" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="A67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="G67" s="7"/>
+      <c r="H67" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="I67" s="4" t="s">
+      <c r="I67" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="J67" s="4" t="s">
+      <c r="J67" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K67" s="4" t="s">
+      <c r="K67" s="8" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" s="1" t="s">
+      <c r="A68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G68" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="H68" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="I68" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="J68" s="4" t="s">
+      <c r="J68" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K68" s="4" t="s">
+      <c r="K68" s="8" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" s="1" t="s">
+    <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G69" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H69" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="I69" s="4" t="s">
+      <c r="I69" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="J69" s="4" t="s">
+      <c r="J69" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="K69" s="4" t="s">
+      <c r="K69" s="8" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" s="1" t="s">
+      <c r="A70" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="G70" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="H70" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="I70" s="4" t="s">
+      <c r="I70" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="J70" s="4" t="s">
+      <c r="J70" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="K70" s="4" t="s">
+      <c r="K70" s="8" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B71" s="1" t="s">
+      <c r="A71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="G71" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="H71" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="I71" s="4" t="s">
+      <c r="I71" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="J71" s="4" t="s">
+      <c r="J71" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="K71" s="4" t="s">
+      <c r="K71" s="8" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B72" s="1" t="s">
+      <c r="A72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="G72" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="H72" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="I72" s="4" t="s">
+      <c r="I72" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="J72" s="4" t="s">
+      <c r="J72" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="K72" s="4" t="s">
+      <c r="K72" s="8" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B73" s="1" t="s">
+      <c r="A73" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="G73" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="H73" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="I73" s="4" t="s">
+      <c r="I73" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="J73" s="4" t="s">
+      <c r="J73" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="K73" s="4" t="s">
+      <c r="K73" s="8" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" s="1" t="s">
+      <c r="A74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="G74" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="H74" s="4" t="s">
+      <c r="H74" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="I74" s="4" t="s">
+      <c r="I74" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="J74" s="4" t="s">
+      <c r="J74" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="K74" s="4" t="s">
+      <c r="K74" s="8" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B75" s="1" t="s">
+      <c r="A75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="G75" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="H75" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="I75" s="4" t="s">
+      <c r="I75" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="J75" s="4" t="s">
+      <c r="J75" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K75" s="4" t="s">
+      <c r="K75" s="8" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B76" s="1" t="s">
+      <c r="A76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G76" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="H76" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="I76" s="4" t="s">
+      <c r="I76" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="J76" s="4" t="s">
+      <c r="J76" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K76" s="4" t="s">
+      <c r="K76" s="8" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B77" s="1" t="s">
+      <c r="A77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="G77" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="H77" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="I77" s="4" t="s">
+      <c r="I77" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="J77" s="4" t="s">
+      <c r="J77" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K77" s="4" t="s">
+      <c r="K77" s="8" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B78" s="1" t="s">
+      <c r="A78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E78" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="G78" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="H78" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="I78" s="4" t="s">
+      <c r="I78" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="J78" s="4" t="s">
+      <c r="J78" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K78" s="4" t="s">
+      <c r="K78" s="8" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B79" s="1" t="s">
+      <c r="A79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G79" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="H79" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="I79" s="4" t="s">
+      <c r="I79" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="J79" s="4" t="s">
+      <c r="J79" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K79" s="4" t="s">
+      <c r="K79" s="8" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B80" s="1" t="s">
+      <c r="A80" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E80" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="G80" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="H80" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="I80" s="4" t="s">
+      <c r="I80" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="J80" s="4" t="s">
+      <c r="J80" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="K80" s="4" t="s">
+      <c r="K80" s="8" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B81" s="1" t="s">
+      <c r="A81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="G81" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="H81" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="I81" s="4" t="s">
+      <c r="I81" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="J81" s="4" t="s">
+      <c r="J81" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K81" s="4" t="s">
+      <c r="K81" s="8" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B82" s="1" t="s">
+      <c r="A82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="G82" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="H82" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="I82" s="4" t="s">
+      <c r="I82" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="J82" s="4" t="s">
+      <c r="J82" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K82" s="4" t="s">
+      <c r="K82" s="8" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B83" s="1" t="s">
+      <c r="A83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="G83" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="H83" s="4" t="s">
+      <c r="H83" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="I83" s="4" t="s">
+      <c r="I83" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="J83" s="4" t="s">
+      <c r="J83" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K83" s="4" t="s">
+      <c r="K83" s="8" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B84" s="1" t="s">
+      <c r="A84" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E84" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="G84" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="H84" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="I84" s="4" t="s">
+      <c r="I84" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="J84" s="4" t="s">
+      <c r="J84" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K84" s="4" t="s">
+      <c r="K84" s="8" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B85" s="1" t="s">
+      <c r="A85" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="G85" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="H85" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="I85" s="4" t="s">
+      <c r="I85" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="J85" s="4" t="s">
+      <c r="J85" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="K85" s="4" t="s">
+      <c r="K85" s="8" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B86" s="1" t="s">
+      <c r="A86" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="8" t="s">
         <v>603</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="G86" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="H86" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="I86" s="4" t="s">
+      <c r="I86" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="J86" s="4" t="s">
+      <c r="J86" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K86" s="4" t="s">
+      <c r="K86" s="8" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="A87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="G87" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="H87" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="I87" s="4" t="s">
+      <c r="I87" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="J87" s="4" t="s">
+      <c r="J87" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K87" s="4" t="s">
+      <c r="K87" s="8" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B88" s="1" t="s">
+    <row r="88" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="G88" s="8" t="s">
         <v>618</v>
       </c>
-      <c r="H88" s="4" t="s">
+      <c r="H88" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="I88" s="4" t="s">
+      <c r="I88" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="J88" s="4" t="s">
+      <c r="J88" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K88" s="4" t="s">
+      <c r="K88" s="8" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B89" s="1" t="s">
+    <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F89" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="G89" s="8" t="s">
         <v>618</v>
       </c>
-      <c r="H89" s="4" t="s">
+      <c r="H89" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="I89" s="4" t="s">
+      <c r="I89" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="J89" s="4" t="s">
+      <c r="J89" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K89" s="4" t="s">
+      <c r="K89" s="8" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B90" s="1" t="s">
+    <row r="90" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="E90" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F90" s="8" t="s">
         <v>630</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="G90" s="8" t="s">
         <v>618</v>
       </c>
-      <c r="H90" s="4" t="s">
+      <c r="H90" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="I90" s="4" t="s">
+      <c r="I90" s="8" t="s">
         <v>632</v>
       </c>
-      <c r="J90" s="4" t="s">
+      <c r="J90" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K90" s="4" t="s">
+      <c r="K90" s="8" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B91" s="1" t="s">
+    <row r="91" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="G91" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="H91" s="4" t="s">
+      <c r="H91" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="I91" s="4" t="s">
+      <c r="I91" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="J91" s="4" t="s">
+      <c r="J91" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="K91" s="4" t="s">
+      <c r="K91" s="8" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B92" s="1" t="s">
+    <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E92" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F92" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="G92" s="4" t="s">
+      <c r="G92" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="H92" s="4" t="s">
+      <c r="H92" s="8" t="s">
         <v>644</v>
       </c>
-      <c r="I92" s="4" t="s">
+      <c r="I92" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="J92" s="4" t="s">
+      <c r="J92" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K92" s="4" t="s">
+      <c r="K92" s="8" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B93" s="1" t="s">
+    <row r="93" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E93" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F93" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="G93" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="H93" s="4" t="s">
+      <c r="H93" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="I93" s="4" t="s">
+      <c r="I93" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="J93" s="4" t="s">
+      <c r="J93" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K93" s="4" t="s">
+      <c r="K93" s="8" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B94" s="1" t="s">
+      <c r="A94" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E94" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="F94" s="8" t="s">
         <v>656</v>
       </c>
-      <c r="G94" s="4" t="s">
+      <c r="G94" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="H94" s="4" t="s">
+      <c r="H94" s="8" t="s">
         <v>657</v>
       </c>
-      <c r="I94" s="4" t="s">
+      <c r="I94" s="8" t="s">
         <v>658</v>
       </c>
-      <c r="J94" s="4" t="s">
+      <c r="J94" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K94" s="4" t="s">
+      <c r="K94" s="8" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B95" s="1" t="s">
+      <c r="A95" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="8" t="s">
         <v>661</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="F95" s="8" t="s">
         <v>662</v>
       </c>
-      <c r="G95" s="4" t="s">
+      <c r="G95" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="H95" s="4" t="s">
+      <c r="H95" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="I95" s="4" t="s">
+      <c r="I95" s="8" t="s">
         <v>664</v>
       </c>
-      <c r="J95" s="4" t="s">
+      <c r="J95" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K95" s="4" t="s">
+      <c r="K95" s="8" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B96" s="1" t="s">
+      <c r="A96" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="G96" s="4" t="s">
+      <c r="G96" s="8" t="s">
         <v>669</v>
       </c>
-      <c r="H96" s="4" t="s">
+      <c r="H96" s="8" t="s">
         <v>670</v>
       </c>
-      <c r="I96" s="4" t="s">
+      <c r="I96" s="8" t="s">
         <v>671</v>
       </c>
-      <c r="J96" s="4" t="s">
+      <c r="J96" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="K96" s="4" t="s">
+      <c r="K96" s="8" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B97" s="1" t="s">
+    <row r="97" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" s="8" t="s">
         <v>675</v>
       </c>
-      <c r="G97" s="4" t="s">
+      <c r="G97" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="H97" s="4" t="s">
+      <c r="H97" s="8" t="s">
         <v>677</v>
       </c>
-      <c r="I97" s="4" t="s">
+      <c r="I97" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="J97" s="4" t="s">
+      <c r="J97" s="8" t="s">
         <v>679</v>
       </c>
-      <c r="K97" s="4" t="s">
+      <c r="K97" s="8" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B98" s="1" t="s">
+    <row r="98" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E98" s="8" t="s">
         <v>682</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="F98" s="8" t="s">
         <v>683</v>
       </c>
-      <c r="G98" s="4" t="s">
+      <c r="G98" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="H98" s="4" t="s">
+      <c r="H98" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="I98" s="4" t="s">
+      <c r="I98" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="J98" s="4" t="s">
+      <c r="J98" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K98" s="4" t="s">
+      <c r="K98" s="8" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B99" s="1" t="s">
+      <c r="A99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E99" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="F99" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="G99" s="4" t="s">
+      <c r="G99" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="H99" s="4" t="s">
+      <c r="H99" s="8" t="s">
         <v>690</v>
       </c>
-      <c r="I99" s="4" t="s">
+      <c r="I99" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="J99" s="4" t="s">
+      <c r="J99" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K99" s="4" t="s">
+      <c r="K99" s="8" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B100" s="1" t="s">
+      <c r="A100" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E100" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="F100" s="8" t="s">
         <v>695</v>
       </c>
-      <c r="G100" s="4" t="s">
+      <c r="G100" s="8" t="s">
         <v>696</v>
       </c>
-      <c r="H100" s="4" t="s">
+      <c r="H100" s="8" t="s">
         <v>697</v>
       </c>
-      <c r="I100" s="4" t="s">
+      <c r="I100" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="J100" s="4" t="s">
+      <c r="J100" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K100" s="4" t="s">
+      <c r="K100" s="8" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B101" s="1" t="s">
+    <row r="101" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E101" s="8" t="s">
         <v>701</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="F101" s="8" t="s">
         <v>702</v>
       </c>
-      <c r="G101" s="4" t="s">
+      <c r="G101" s="8" t="s">
         <v>703</v>
       </c>
-      <c r="H101" s="4" t="s">
+      <c r="H101" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="I101" s="4" t="s">
+      <c r="I101" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="J101" s="4" t="s">
+      <c r="J101" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K101" s="4" t="s">
+      <c r="K101" s="8" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C102" s="1" t="s">
+    <row r="102" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="7" t="s">
         <v>707</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E102" s="8" t="s">
         <v>708</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="F102" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="H102" s="4" t="s">
+      <c r="G102" s="7"/>
+      <c r="H102" s="8" t="s">
         <v>710</v>
       </c>
-      <c r="I102" s="4" t="s">
+      <c r="I102" s="8" t="s">
         <v>711</v>
       </c>
-      <c r="J102" s="4" t="s">
+      <c r="J102" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K102" s="4" t="s">
+      <c r="K102" s="8" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103" s="1" t="s">
+    <row r="103" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="E103" s="8" t="s">
         <v>714</v>
       </c>
-      <c r="F103" s="4" t="s">
+      <c r="F103" s="8" t="s">
         <v>715</v>
       </c>
-      <c r="H103" s="4" t="s">
+      <c r="G103" s="7"/>
+      <c r="H103" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="I103" s="4" t="s">
+      <c r="I103" s="8" t="s">
         <v>717</v>
       </c>
-      <c r="J103" s="4" t="s">
+      <c r="J103" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K103" s="4" t="s">
+      <c r="K103" s="8" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C104" s="1" t="s">
+    <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="7" t="s">
         <v>719</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="E104" s="8" t="s">
         <v>720</v>
       </c>
-      <c r="F104" s="4" t="s">
+      <c r="F104" s="8" t="s">
         <v>721</v>
       </c>
-      <c r="H104" s="4" t="s">
+      <c r="G104" s="7"/>
+      <c r="H104" s="8" t="s">
         <v>722</v>
       </c>
-      <c r="I104" s="4" t="s">
+      <c r="I104" s="8" t="s">
         <v>723</v>
       </c>
-      <c r="J104" s="4" t="s">
+      <c r="J104" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K104" s="4" t="s">
+      <c r="K104" s="8" t="s">
         <v>724</v>
       </c>
     </row>

--- a/storage/app/repository/ISO27001-2022.en.xlsx
+++ b/storage/app/repository/ISO27001-2022.en.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="730">
   <si>
     <t xml:space="preserve">Framework</t>
   </si>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">- Continuous improvement plan</t>
   </si>
   <si>
-    <t xml:space="preserve"> Monitor the improvement of the relevance, adequacy and effectiveness of the information security management system.</t>
+    <t xml:space="preserve">Monitor the improvement of the relevance, adequacy and effectiveness of the information security management system.</t>
   </si>
   <si>
     <t xml:space="preserve">- Green: compliant 
@@ -95,7 +95,7 @@
     <t xml:space="preserve">- The plan for monitoring non-conformities and corrective actions</t>
   </si>
   <si>
-    <t xml:space="preserve"> Control the plan for dealing with non-conformities and corrective actions</t>
+    <t xml:space="preserve">Control the plan for dealing with non-conformities and corrective actions</t>
   </si>
   <si>
     <t xml:space="preserve">Implement a plan to manage non-conformities and corrective actions</t>
@@ -116,7 +116,7 @@
 - Information security management system</t>
   </si>
   <si>
-    <t xml:space="preserve"> Control the understanding of the organization and its context, the understanding of the needs and expectations of interested parties, the area of application and the information security management system.</t>
+    <t xml:space="preserve">Control the understanding of the organization and its context, the understanding of the needs and expectations of interested parties, the area of application and the information security management system.</t>
   </si>
   <si>
     <t xml:space="preserve">Review understanding of the organization and its context</t>
@@ -145,7 +145,7 @@
 - dissemination evidence</t>
   </si>
   <si>
-    <t xml:space="preserve"> Control the existence of all security policies, their validation, their distribution and communication to employees and third parties concerned.</t>
+    <t xml:space="preserve">Control the existence of all security policies, their validation, their distribution and communication to employees and third parties concerned.</t>
   </si>
   <si>
     <t xml:space="preserve">- Green: compliant 
@@ -325,10 +325,10 @@
     <t xml:space="preserve">Information Security in Project Management</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ensure that information security risks relating to projects and deliverables are addressed effectively in project management, throughout the project lifecycle.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Protect #Governance #Governance_and_Ecosystem </t>
+    <t xml:space="preserve">Ensure that information security risks relating to projects and deliverables are addressed effectively in project management, throughout the project lifecycle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Preventive #Confidentiality #Integrity #Availability #Identify #Protect #Governance #Governance_and_Ecosystem </t>
   </si>
   <si>
     <t xml:space="preserve">- security organization procedure 
@@ -338,11 +338,6 @@
     <t xml:space="preserve">Monitor the consideration of information security in project management.</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Green: presence of evidence 
-- Orange: minor non-conformity 
-- Red: absence of evidence</t>
-  </si>
-  <si>
     <t xml:space="preserve">Integrate information security into the organization's project management activities.</t>
   </si>
   <si>
@@ -355,7 +350,7 @@
     <t xml:space="preserve"> Identify information and other associated assets of the organization to maintain their security and assign ownership appropriately.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Asset_management #Governance_and_Ecosystem #Protect</t>
+    <t xml:space="preserve">#Preventive #Confidentiality #Integrity #Availability #Identify #Asset_management #Governance_and_Ecosystem #Protect</t>
   </si>
   <si>
     <t xml:space="preserve">- extract from the inventory 
@@ -363,10 +358,10 @@
 -Check the attribution of an owner</t>
   </si>
   <si>
-    <t xml:space="preserve"> Control that an inventory of information and other associated assets, including their owners, is maintained and updated</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Green: presence of evidence
+    <t xml:space="preserve">Control that an inventory of information and other associated assets, including their owners, is maintained and updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Green: presence of evidence
 - Orange: minor breach
 - Red: absence of evidence</t>
   </si>
@@ -383,7 +378,7 @@
     <t xml:space="preserve">Ensure that information and other associated assets are protected, used and processed appropriately.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Asset_management #Information_Protection #Governance_and_Ecosystem </t>
+    <t xml:space="preserve">#Preventive #Confidentiality #Integrity #Availability #Protect #Asset_management #Information_Protection #Governance_and_Ecosystem </t>
   </si>
   <si>
     <t xml:space="preserve">- Rule for correct use of assets 
@@ -393,11 +388,6 @@
     <t xml:space="preserve">Check the existence of rules Compare the publication date to theCheck date</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Green: presence of evidence 
-- Orange: minor breach 
-- Red: absence of evidence</t>
-  </si>
-  <si>
     <t xml:space="preserve">Identify, document and implement rules for the correct use and procedures for processing information and other associated assets.</t>
   </si>
   <si>
@@ -420,7 +410,7 @@
     <t xml:space="preserve">Check the list of employees who have left the organization and proof of return of assets to the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Green: compliant 
+    <t xml:space="preserve">- Green: compliant 
 - Orange: minor non-compliance 
 - Red: non-compliant</t>
   </si>
@@ -444,7 +434,7 @@
 -Check with the DPO and lawyer the conformity of the procedure in view of the changes in the context of the organization</t>
   </si>
   <si>
-    <t xml:space="preserve"> Control the existence and updating of the procedure and its content taking into account the context of the organization</t>
+    <t xml:space="preserve">Control the existence and updating of the procedure and its content taking into account the context of the organization</t>
   </si>
   <si>
     <t xml:space="preserve"> Classify information in accordance with the organization's information security needs in terms of confidentiality, integrity, availability and the requirements of interested parties.</t>
@@ -530,7 +520,7 @@
 - date ofCheck</t>
   </si>
   <si>
-    <t xml:space="preserve"> Control the management of the complete identity lifecycle.</t>
+    <t xml:space="preserve">Control the management of the complete identity lifecycle.</t>
   </si>
   <si>
     <t xml:space="preserve">Manage the full lifecycle of identities.</t>
@@ -548,7 +538,7 @@
     <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Identity_and_Access_Management </t>
   </si>
   <si>
-    <t xml:space="preserve"> process for managing the allocation of secret authentication information</t>
+    <t xml:space="preserve">process for managing the allocation of secret authentication information</t>
   </si>
   <si>
     <t xml:space="preserve">Check the existence and application of the process for managing the allocation of secret authentication information</t>
@@ -571,7 +561,7 @@
 - Review of access rights</t>
   </si>
   <si>
-    <t xml:space="preserve"> Control the existence of the process for controlling user access management, the validity of proof of application of the process and the review of access rights</t>
+    <t xml:space="preserve">Control the existence of the process for controlling user access management, the validity of proof of application of the process and the review of access rights</t>
   </si>
   <si>
     <t xml:space="preserve">Access rights to information and other associated assets are provisioned, reviewed, modified and terminated in accordance with the organization's subject matter policy and access control rules.</t>
@@ -649,7 +639,8 @@
     <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Identify #Supplier_relations #Information_Security_Assurance #Governance_and_Ecosystem #Protect #Defense</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Suppliers concerned - Monitoring, verifications and audits carried out</t>
+    <t xml:space="preserve">- Suppliers concerned 
+- Monitoring, verifications and audits carried out</t>
   </si>
   <si>
     <t xml:space="preserve">Monitor that the organization regularly monitors, reviews, evaluates and manages changes in supplier practices relating to information security and service delivery.</t>
@@ -690,7 +681,7 @@
     <t xml:space="preserve">Ensure a rapid, effective, consistent and orderly response to information security incidents, including communication on information security events.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Fix #Privacy #Integrity #Availability #Respond #Recover #Governance #Information_Security_Event_Handling #Defense</t>
+    <t xml:space="preserve">#Fix #Privacy #Integrity #Availability #Respond #Recover #Governance #Information_Security_Event_Handling #Defense</t>
   </si>
   <si>
     <t xml:space="preserve">- incident management procedure 
@@ -712,7 +703,7 @@
     <t xml:space="preserve">Ensure effective categorization and prioritization of information security events.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Detective #Privacy #Integrity #Availability #Detective #Respond #Information_Security_Event_Handling #Defense</t>
+    <t xml:space="preserve">#Detective #Privacy #Integrity #Availability #Detective #Respond #Information_Security_Event_Handling #Defense</t>
   </si>
   <si>
     <t xml:space="preserve">- list of incidents 
@@ -735,10 +726,10 @@
     <t xml:space="preserve">Ensure an efficient and effective response to information security incidents.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Fix #Privacy #Integrity #Availability #Respond #Revert #Information_security_event_handling #Defense</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Security incident management procedure Evidence of application of the procedure</t>
+    <t xml:space="preserve">#Fix #Privacy #Integrity #Availability #Respond #Revert #Information_security_event_handling #Defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security incident management procedure Evidence of application of the procedure</t>
   </si>
   <si>
     <t xml:space="preserve">Check that the procedure exists and is up to dateCheck that the procedure is followed</t>
@@ -759,7 +750,8 @@
     <t xml:space="preserve">#Preventive #Confidentiality #Integrity #Availability #Identify #Protect #Information_Security_Event_Handling #Defense</t>
   </si>
   <si>
-    <t xml:space="preserve">- Incident management procedure - Evidence of knowledge use</t>
+    <t xml:space="preserve">- Incident management procedure 
+- Evidence of knowledge use</t>
   </si>
   <si>
     <t xml:space="preserve">Check the existence of improvement in the procedureCheck the existence of proof of improvement</t>
@@ -801,7 +793,9 @@
     <t xml:space="preserve"> #Preventive #Corrective #Confidentiality #Integrity #Availability #Protect #Respond #Continuity  #Resilience</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Business continuity management procedure - Security and continuity requirements - Evidence of verification of measures</t>
+    <t xml:space="preserve">- Business continuity management procedure 
+- Security and continuity requirements 
+- Evidence of verification of measures</t>
   </si>
   <si>
     <t xml:space="preserve">Check the existence and updating of the procedureCheck the security and continuity requirements</t>
@@ -830,7 +824,7 @@
     <t xml:space="preserve">Control the identification of systems and their security objectives Control the performance of continuity tests</t>
   </si>
   <si>
-    <t xml:space="preserve"> Identify business continuity objectives and ICT continuity requirements. Perform continuity tests.</t>
+    <t xml:space="preserve">Identify business continuity objectives and ICT continuity requirements. Perform continuity tests.</t>
   </si>
   <si>
     <t xml:space="preserve">27001:2022-5.31</t>
@@ -845,13 +839,14 @@
     <t xml:space="preserve">#Preventive #Confidentiality #Integrity #Availability #Identify #Regulation_and_compliance #Governance_and_Ecosystem #Protect</t>
   </si>
   <si>
-    <t xml:space="preserve"> - inventory of current legal, statutory, regulatory and contractual requirements - approach adopted by the organization to meet these requirements</t>
+    <t xml:space="preserve">- inventory of current legal, statutory, regulatory and contractual requirements 
+- approach adopted by the organization to meet these requirements</t>
   </si>
   <si>
     <t xml:space="preserve">Check that the inventory is up to date and that the approach is documented</t>
   </si>
   <si>
-    <t xml:space="preserve"> Explicitly define, document, and update all applicable legal, statutory, regulatory, and contractual requirements, and the organization's approach to meeting those requirements for each information system and for the organization itself .</t>
+    <t xml:space="preserve">Explicitly define, document, and update all applicable legal, statutory, regulatory, and contractual requirements, and the organization's approach to meeting those requirements for each information system and for the organization itself .</t>
   </si>
   <si>
     <t xml:space="preserve">27001:2022-5.32</t>
@@ -873,7 +868,7 @@
     <t xml:space="preserve">Check the existence of the procedure and its updating and proof of application of the procedure</t>
   </si>
   <si>
-    <t xml:space="preserve"> Implement appropriate procedures to ensure compliance with legal, regulatory and contractual requirements relating to intellectual property and the use of proprietary software licenses.</t>
+    <t xml:space="preserve">Implement appropriate procedures to ensure compliance with legal, regulatory and contractual requirements relating to intellectual property and the use of proprietary software licenses.</t>
   </si>
   <si>
     <t xml:space="preserve">27001:2022-5.33</t>
@@ -1032,7 +1027,7 @@
     <t xml:space="preserve">Check the existence of an up-to-date procedure and the existence of evidence of execution of the selection process.</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Green: compliant 
+    <t xml:space="preserve">- Green: compliant 
 - Orange: minor non-compliance 
 - Red: no evidence</t>
   </si>
@@ -1068,9 +1063,6 @@
     <t xml:space="preserve">Ensure that staff and relevant interested parties are aware of and fulfill their information security responsibilities.</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Human_Resources_Security #Governance_and_Ecosystem</t>
-  </si>
-  <si>
     <t xml:space="preserve">- information security awareness plan 
 - attendance sheets</t>
   </si>
@@ -1078,7 +1070,7 @@
     <t xml:space="preserve">Check the existence of a security awareness plan and staff participation in training</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Green: existence of a plan and presence of staff
+    <t xml:space="preserve">- Green: existence of a plan and presence of staff
 - Orange: minor non-compliance
 - Red: Lack of awareness</t>
   </si>
@@ -1095,7 +1087,7 @@
     <t xml:space="preserve">Ensure that staff and other relevant interested parties understand the consequences of violations of the information security policy, prevent such violations, and appropriately deal with staff and other interested parties who have committed violations .</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Preventive #Corrective #Confidentiality #Integrity #Availability #Protect #Respond #Human_Resources_Security #Governance_and_Ecosystem</t>
+    <t xml:space="preserve">#Preventive #Corrective #Confidentiality #Integrity #Availability #Protect #Respond #Human_Resources_Security #Governance_and_Ecosystem</t>
   </si>
   <si>
     <t xml:space="preserve">- Disciplinary process 
@@ -1106,7 +1098,7 @@
     <t xml:space="preserve">Control that a disciplinary process for taking action against staff and other interested parties who have committed a violation of the information security policy is formalized and communicated.</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Green: exists 
+    <t xml:space="preserve">- Green: exists 
 - Orange: minor non-compliance 
 - Red: absence of evidence</t>
   </si>
@@ -1133,7 +1125,7 @@
     <t xml:space="preserve">Existence of terms and evidence of application</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Green: exists 
+    <t xml:space="preserve">- Green: exists 
 - Orange: minor non-conformities 
 - Red: absence of evidence</t>
   </si>
@@ -1160,7 +1152,7 @@
     <t xml:space="preserve">Check that requirements are identified and documented</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Green: compliant 
+    <t xml:space="preserve">- Green: compliant 
 - Orange: anomaly 
 - Red: non-compliant</t>
   </si>
@@ -1233,10 +1225,6 @@
 - ISMS modification plan</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Green: compliant 
-- Red: non-compliant</t>
-  </si>
-  <si>
     <t xml:space="preserve">Implement actions to address risks and opportunities, information security objectives and an ISMS modification plan.</t>
   </si>
   <si>
@@ -1265,7 +1253,7 @@
     <t xml:space="preserve">Check that security perimeters to protect areas that contain sensitive or critical information and other associated assets are defined.</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Green: compliant 
+    <t xml:space="preserve">- Green: compliant 
 - Orange: anomalies 
 - Red: non-compliant</t>
   </si>
@@ -1439,7 +1427,7 @@
     <t xml:space="preserve">Prevent loss, damage, theft, or compromise of off-site endpoints and disruption of organizational operations.</t>
   </si>
   <si>
-    <t xml:space="preserve"> - security measures applied 
+    <t xml:space="preserve">- security measures applied 
 - evidence of application of security measures</t>
   </si>
   <si>
@@ -1458,7 +1446,7 @@
     <t xml:space="preserve">Ensure that only authorized disclosure, modification, removal or destruction of organizational information on storage media is made.</t>
   </si>
   <si>
-    <t xml:space="preserve"> - storage media management procedure 
+    <t xml:space="preserve">- storage media management procedure 
 - media samples 
 - evidence of media management (conservation, classification, etc.) 
 - Sample of transport carried out 
@@ -1488,7 +1476,7 @@
 - protective measures</t>
   </si>
   <si>
-    <t xml:space="preserve"> Control the inventory of equipment and the application of protective measures.</t>
+    <t xml:space="preserve">Control the inventory of equipment and the application of protective measures.</t>
   </si>
   <si>
     <t xml:space="preserve"> Protect equipment from power outages and other disruptions due to failure of general services.</t>
@@ -1569,7 +1557,7 @@
     <t xml:space="preserve">Have the necessary resources and skills for the implementation of the ISMS.</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Necessary resources 
+    <t xml:space="preserve">- Necessary resources 
 - Skills matrix</t>
   </si>
   <si>
@@ -1713,7 +1701,7 @@
 - application of the connection procedure</t>
   </si>
   <si>
-    <t xml:space="preserve"> Control the application of secure connection procedures</t>
+    <t xml:space="preserve">Control the application of secure connection procedures</t>
   </si>
   <si>
     <t xml:space="preserve"> When required by access control policy, control access to systems and applications through a secure login procedure.</t>
@@ -1736,7 +1724,7 @@
 - projection on future sizing</t>
   </si>
   <si>
-    <t xml:space="preserve"> Control the inventory of monitored resources, evidence of monitoring and projections made</t>
+    <t xml:space="preserve">Control the inventory of monitored resources, evidence of monitoring and projections made</t>
   </si>
   <si>
     <t xml:space="preserve">Monitor and adjust resource usage and make projections on future sizing to ensure required system performance.</t>
@@ -1879,11 +1867,13 @@
     <t xml:space="preserve"> #Fix #Integrity #Availability #Restore #Continuity #Protect</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Backup policy - Backup copies 
+    <t xml:space="preserve">- Backup policy - Backup copies 
 - Backup copy tests</t>
   </si>
   <si>
-    <t xml:space="preserve"> -Check the existence and updating of the backup policy - Existence of backup copies - Tests of backup copies</t>
+    <t xml:space="preserve">- Check the existence and updating of the backup policy 
+- Existence of backup copies 
+- Tests of backup copies</t>
   </si>
   <si>
     <t xml:space="preserve">Maintain backup copies of information, software and systems and test them regularly using the defined backup policy.</t>
@@ -1977,7 +1967,7 @@
 - effectiveness of synchronization</t>
   </si>
   <si>
-    <t xml:space="preserve"> Control clock inventory, unique time source used, and clock synchronization on the source</t>
+    <t xml:space="preserve">Control clock inventory, unique time source used, and clock synchronization on the source</t>
   </si>
   <si>
     <t xml:space="preserve"> Synchronized to a single time reference source the clocks of all the relevant information processing systems of an organization or security domain.</t>
@@ -2078,17 +2068,14 @@
     <t xml:space="preserve">Internet filtering</t>
   </si>
   <si>
-    <t xml:space="preserve"> Divide the network into security perimeters and control traffic between them based on business needs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #System_and_network_security </t>
+    <t xml:space="preserve">Divide the network into security perimeters and control traffic between them based on business needs.</t>
   </si>
   <si>
     <t xml:space="preserve">- access measures put in place 
 - blockages carried out</t>
   </si>
   <si>
-    <t xml:space="preserve"> Control access rules to external websites and any blocks made.</t>
+    <t xml:space="preserve">Control access rules to external websites and any blocks made.</t>
   </si>
   <si>
     <t xml:space="preserve"> Manage access to external websites to reduce exposure to malicious content.</t>
@@ -2107,7 +2094,7 @@
 - network partitioning measures</t>
   </si>
   <si>
-    <t xml:space="preserve"> Control the inventory of groups of information services, users and information systems and the implementation of network partitioning measures</t>
+    <t xml:space="preserve">Control the inventory of groups of information services, users and information systems and the implementation of network partitioning measures</t>
   </si>
   <si>
     <t xml:space="preserve"> Partitioning groups of information services, users and information systems on the networks.</t>
@@ -2120,9 +2107,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ensure the correct and effective use of cryptography to protect the confidentiality, authenticity or integrity of information in accordance with business and information security requirements, and taking into account legal, statutory, regulatory and contractual requirements relating to cryptography.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> #Preventive #Confidentiality #Integrity #Availability #Protect #Secure_configuration </t>
   </si>
   <si>
     <t xml:space="preserve">- Rules for the use of cryptography 
@@ -2175,7 +2159,7 @@
 - protection measures</t>
   </si>
   <si>
-    <t xml:space="preserve"> Control the inventory of network services and the effectiveness of measures against fraudulent activities, contractual mismatches, as well as unauthorized disclosure and modification.</t>
+    <t xml:space="preserve">Control the inventory of network services and the effectiveness of measures against fraudulent activities, contractual mismatches, as well as unauthorized disclosure and modification.</t>
   </si>
   <si>
     <t xml:space="preserve">Protect against fraudulent activity, contractual disputes, and unauthorized disclosure and modification of information related to application services transmitted over public networks.</t>
@@ -2194,7 +2178,7 @@
 - information systems implementation work</t>
   </si>
   <si>
-    <t xml:space="preserve"> Control that engineering principles are established and updated and that these principles are applied in the work of implementing information systems</t>
+    <t xml:space="preserve">Control that engineering principles are established and updated and that these principles are applied in the work of implementing information systems</t>
   </si>
   <si>
     <t xml:space="preserve"> Establish and document systems security engineering principles, maintain them and apply them to all information systems implementation work.</t>
@@ -2225,7 +2209,7 @@
     <t xml:space="preserve">27001:2022-8.29</t>
   </si>
   <si>
-    <t xml:space="preserve"> Security testing in development and acceptance</t>
+    <t xml:space="preserve">Security testing in development and acceptance</t>
   </si>
   <si>
     <t xml:space="preserve">Validate compliance with information security requirements when applications or codes are deployed in the environment.</t>
@@ -2300,7 +2284,7 @@
 - changes made</t>
   </si>
   <si>
-    <t xml:space="preserve"> Control the change management procedure, its updating and the changes made follow the procedure</t>
+    <t xml:space="preserve">Control the change management procedure, its updating and the changes made follow the procedure</t>
   </si>
   <si>
     <t xml:space="preserve">Control system changes within the development cycle through formal procedures.</t>
@@ -2368,7 +2352,7 @@
     <t xml:space="preserve">Check that the risk assessment and the risk treatment plan are up to date.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Plan, implement and control the processes necessary to meet information security requirements; Carry out information security risk assessments; and Implement the information security risk treatment plan.</t>
+    <t xml:space="preserve">Plan, implement and control the processes necessary to meet information security requirements; Carry out information security risk assessments; and Implement the information security risk treatment plan.</t>
   </si>
   <si>
     <t xml:space="preserve">27001:2022-9.2</t>
@@ -2388,7 +2372,7 @@
     <t xml:space="preserve">Check the existence and consistency of the internal audit plan, the internal audits carried out and the monitoring of action plans</t>
   </si>
   <si>
-    <t xml:space="preserve"> Define an internal audit plan. Carry out internal audits Follow audit recommendations in an action plan</t>
+    <t xml:space="preserve">Define an internal audit plan. Carry out internal audits Follow audit recommendations in an action plan</t>
   </si>
   <si>
     <t xml:space="preserve">27001:2022-9.3</t>
@@ -2406,7 +2390,7 @@
     <t xml:space="preserve">Control the documentation of the management review, its content and the conclusions of the review.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Plan a management review in accordance with the expectations of the standard</t>
+    <t xml:space="preserve">Plan a management review in accordance with the expectations of the standard</t>
   </si>
 </sst>
 </file>
@@ -2634,7 +2618,7 @@
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14"/>
@@ -3054,10 +3038,10 @@
         <v>95</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3071,28 +3055,28 @@
         <v>33</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3106,28 +3090,28 @@
         <v>33</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3141,28 +3125,28 @@
         <v>33</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="J15" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="K15" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3176,28 +3160,28 @@
         <v>33</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="I16" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="J16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3211,28 +3195,28 @@
         <v>33</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3246,28 +3230,28 @@
         <v>33</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="I18" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3281,28 +3265,28 @@
         <v>33</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="I19" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="J19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3316,28 +3300,28 @@
         <v>33</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="G20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="I20" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3351,28 +3335,28 @@
         <v>33</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="G21" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="H21" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="I21" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="J21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3386,28 +3370,28 @@
         <v>33</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="G22" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="I22" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="H22" s="6" t="s">
+      <c r="J22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3421,28 +3405,28 @@
         <v>33</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="H23" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="I23" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="J23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3456,28 +3440,28 @@
         <v>33</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="H24" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="I24" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="J24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K24" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3491,28 +3475,28 @@
         <v>33</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="I25" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H25" s="6" t="s">
+      <c r="J25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K25" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3526,28 +3510,28 @@
         <v>33</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="G26" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="J26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3561,28 +3545,28 @@
         <v>33</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="G27" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="H27" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="J27" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3596,28 +3580,28 @@
         <v>33</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="G28" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="H28" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="I28" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="J28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K28" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3631,28 +3615,28 @@
         <v>33</v>
       </c>
       <c r="D29" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="G29" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="H29" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="I29" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="J29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3666,28 +3650,28 @@
         <v>33</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="G30" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="H30" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="I30" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="J30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3701,28 +3685,28 @@
         <v>33</v>
       </c>
       <c r="D31" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="G31" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="H31" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="I31" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="J31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3736,28 +3720,28 @@
         <v>33</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="G32" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="H32" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="I32" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="J32" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3771,28 +3755,28 @@
         <v>33</v>
       </c>
       <c r="D33" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="G33" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="H33" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="I33" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="J33" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K33" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3806,28 +3790,28 @@
         <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="G34" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="H34" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="I34" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="J34" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K34" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3841,28 +3825,28 @@
         <v>33</v>
       </c>
       <c r="D35" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="G35" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="H35" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="I35" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="J35" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K35" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3876,28 +3860,28 @@
         <v>33</v>
       </c>
       <c r="D36" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="G36" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="H36" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="I36" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="J36" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K36" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3911,28 +3895,28 @@
         <v>33</v>
       </c>
       <c r="D37" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="G37" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="H37" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="I37" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="J37" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K37" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3946,28 +3930,28 @@
         <v>33</v>
       </c>
       <c r="D38" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="G38" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="H38" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="I38" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="J38" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K38" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3981,28 +3965,28 @@
         <v>33</v>
       </c>
       <c r="D39" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="G39" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="H39" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="I39" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="J39" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K39" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4016,28 +4000,28 @@
         <v>33</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="G40" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="H40" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="I40" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="J40" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K40" s="6" t="s">
         <v>289</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4051,28 +4035,28 @@
         <v>33</v>
       </c>
       <c r="D41" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="G41" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="H41" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="I41" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="J41" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4086,26 +4070,26 @@
         <v>12</v>
       </c>
       <c r="D42" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4113,34 +4097,34 @@
         <v>11</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="E43" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="F43" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="G43" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="H43" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="I43" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="J43" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="K43" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4148,34 +4132,34 @@
         <v>11</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D44" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="G44" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="I44" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="G44" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="H44" s="6" t="s">
+      <c r="J44" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4183,34 +4167,34 @@
         <v>11</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D45" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="G45" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="I45" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="J45" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="K45" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4218,34 +4202,34 @@
         <v>11</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D46" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="H46" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="I46" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="J46" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="K46" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4253,34 +4237,34 @@
         <v>11</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D47" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="H47" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="I47" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="J47" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="K47" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4288,34 +4272,34 @@
         <v>11</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D48" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="H48" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="I48" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="J48" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="K48" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4323,34 +4307,34 @@
         <v>11</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D49" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="H49" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="I49" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="J49" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K49" s="6" t="s">
         <v>356</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4358,34 +4342,34 @@
         <v>11</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D50" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="H50" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="I50" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="J50" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K50" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4399,26 +4383,26 @@
         <v>12</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>372</v>
+        <v>18</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4426,34 +4410,34 @@
         <v>11</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F52" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="G52" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="H52" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="I52" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="J52" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="K52" s="6" t="s">
         <v>379</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4461,34 +4445,34 @@
         <v>11</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D53" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="H53" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="I53" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="J53" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K53" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4496,34 +4480,34 @@
         <v>11</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D54" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="H54" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="I54" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="J54" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="K54" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4531,34 +4515,34 @@
         <v>11</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D55" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H55" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="I55" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="J55" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="K55" s="6" t="s">
         <v>400</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4566,34 +4550,34 @@
         <v>11</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="H56" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="I56" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="J56" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K56" s="6" t="s">
         <v>406</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4601,34 +4585,34 @@
         <v>11</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D57" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="H57" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="I57" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="J57" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K57" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4636,34 +4620,34 @@
         <v>11</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D58" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H58" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="I58" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="J58" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="K58" s="6" t="s">
         <v>420</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4671,34 +4655,34 @@
         <v>11</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D59" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H59" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="I59" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="J59" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="K59" s="6" t="s">
         <v>427</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4706,34 +4690,34 @@
         <v>11</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D60" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="I60" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="J60" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K60" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="J60" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4741,34 +4725,34 @@
         <v>11</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D61" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="I61" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="J61" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="K61" s="6" t="s">
         <v>439</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4776,34 +4760,34 @@
         <v>11</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D62" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="H62" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="I62" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="J62" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="K62" s="6" t="s">
         <v>446</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4811,34 +4795,34 @@
         <v>11</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D63" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H63" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="I63" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="J63" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="K63" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4846,34 +4830,34 @@
         <v>11</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D64" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H64" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="I64" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="J64" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="K64" s="6" t="s">
         <v>460</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="K64" s="6" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4881,34 +4865,34 @@
         <v>11</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D65" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H65" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="I65" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="J65" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="K65" s="6" t="s">
         <v>467</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="K65" s="6" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4922,26 +4906,26 @@
         <v>12</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="6" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>372</v>
+        <v>18</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4955,26 +4939,26 @@
         <v>12</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="6" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>372</v>
+        <v>18</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4982,34 +4966,34 @@
         <v>11</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="G68" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="H68" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="I68" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="J68" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K68" s="6" t="s">
         <v>488</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K68" s="6" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5017,34 +5001,34 @@
         <v>11</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D69" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="I69" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="J69" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="K69" s="6" t="s">
         <v>495</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="J69" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="K69" s="6" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5052,34 +5036,34 @@
         <v>11</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D70" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="H70" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="I70" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="J70" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="K70" s="6" t="s">
         <v>503</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="K70" s="6" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5087,34 +5071,34 @@
         <v>11</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D71" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="H71" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="I71" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="J71" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="K71" s="6" t="s">
         <v>511</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="J71" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="K71" s="6" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5122,34 +5106,34 @@
         <v>11</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D72" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="I72" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="J72" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="K72" s="6" t="s">
         <v>517</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="K72" s="6" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5157,34 +5141,34 @@
         <v>11</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D73" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="H73" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="I73" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="J73" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="K73" s="6" t="s">
         <v>524</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="J73" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="K73" s="6" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5192,34 +5176,34 @@
         <v>11</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H74" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="K74" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J74" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="K74" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5227,34 +5211,34 @@
         <v>11</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D75" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="H75" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="I75" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="J75" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K75" s="6" t="s">
         <v>535</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="J75" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K75" s="6" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5262,34 +5246,34 @@
         <v>11</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D76" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="H76" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="I76" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="J76" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K76" s="6" t="s">
         <v>542</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="J76" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K76" s="6" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5297,34 +5281,34 @@
         <v>11</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D77" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="H77" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="I77" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="F77" s="6" t="s">
+      <c r="J77" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K77" s="6" t="s">
         <v>549</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="J77" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K77" s="6" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5332,34 +5316,34 @@
         <v>11</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D78" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="H78" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="I78" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="J78" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K78" s="6" t="s">
         <v>556</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="J78" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K78" s="6" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5367,34 +5351,34 @@
         <v>11</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D79" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="H79" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="I79" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="J79" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K79" s="6" t="s">
         <v>563</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="J79" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K79" s="6" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5402,34 +5386,34 @@
         <v>11</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D80" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="H80" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="I80" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="J80" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="K80" s="6" t="s">
         <v>570</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="J80" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="K80" s="6" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5437,34 +5421,34 @@
         <v>11</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D81" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="H81" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="I81" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="J81" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K81" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="J81" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5472,34 +5456,34 @@
         <v>11</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D82" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="H82" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="I82" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="J82" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K82" s="6" t="s">
         <v>584</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="J82" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K82" s="6" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5507,34 +5491,34 @@
         <v>11</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D83" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="H83" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="I83" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="J83" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K83" s="6" t="s">
         <v>591</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="J83" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K83" s="6" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5542,34 +5526,34 @@
         <v>11</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D84" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="H84" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="I84" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="J84" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K84" s="6" t="s">
         <v>598</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="I84" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="J84" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K84" s="6" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5577,34 +5561,34 @@
         <v>11</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D85" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="H85" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="I85" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="J85" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="K85" s="6" t="s">
         <v>605</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="J85" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="K85" s="6" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5612,34 +5596,34 @@
         <v>11</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D86" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="H86" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="I86" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="J86" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K86" s="6" t="s">
         <v>612</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="I86" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="J86" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K86" s="6" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5647,34 +5631,34 @@
         <v>11</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D87" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="H87" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="I87" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="F87" s="6" t="s">
+      <c r="J87" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K87" s="6" t="s">
         <v>619</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="J87" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K87" s="6" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5682,34 +5666,34 @@
         <v>11</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D88" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="H88" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="I88" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="J88" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K88" s="6" t="s">
         <v>626</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>628</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="J88" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K88" s="6" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5717,34 +5701,34 @@
         <v>11</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D89" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="I89" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="J89" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K89" s="6" t="s">
         <v>632</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="J89" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K89" s="6" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5752,34 +5736,34 @@
         <v>11</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D90" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K90" s="6" t="s">
         <v>638</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="J90" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K90" s="6" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5787,34 +5771,34 @@
         <v>11</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D91" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="K91" s="6" t="s">
         <v>644</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="J91" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="K91" s="6" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5822,34 +5806,34 @@
         <v>11</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D92" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K92" s="6" t="s">
         <v>651</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="I92" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="J92" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K92" s="6" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5857,34 +5841,34 @@
         <v>11</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D93" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K93" s="6" t="s">
         <v>658</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="I93" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="J93" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K93" s="6" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5892,34 +5876,34 @@
         <v>11</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5927,34 +5911,34 @@
         <v>11</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D95" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K95" s="6" t="s">
         <v>671</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="I95" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="J95" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K95" s="6" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5962,34 +5946,34 @@
         <v>11</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D96" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="K96" s="6" t="s">
         <v>678</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="H96" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="I96" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="J96" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="K96" s="6" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5997,34 +5981,34 @@
         <v>11</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D97" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K97" s="6" t="s">
         <v>685</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="J97" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K97" s="6" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6032,34 +6016,34 @@
         <v>11</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6067,34 +6051,34 @@
         <v>11</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6102,34 +6086,34 @@
         <v>11</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D100" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K100" s="6" t="s">
         <v>704</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="H100" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="I100" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="J100" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K100" s="6" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6137,34 +6121,34 @@
         <v>11</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D101" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K101" s="6" t="s">
         <v>711</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>712</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="J101" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K101" s="6" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6178,26 +6162,26 @@
         <v>12</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G102" s="5"/>
       <c r="H102" s="6" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>372</v>
+        <v>18</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6211,26 +6195,26 @@
         <v>12</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G103" s="5"/>
       <c r="H103" s="6" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>372</v>
+        <v>18</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6244,26 +6228,26 @@
         <v>12</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="G104" s="5"/>
       <c r="H104" s="6" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>372</v>
+        <v>18</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
   </sheetData>

--- a/storage/app/repository/ISO27001-2022.en.xlsx
+++ b/storage/app/repository/ISO27001-2022.en.xlsx
@@ -529,7 +529,7 @@
     <t xml:space="preserve">27001:2022-5.17</t>
   </si>
   <si>
-    <t xml:space="preserve"> Authentication information</t>
+    <t xml:space="preserve">Authentication information</t>
   </si>
   <si>
     <t xml:space="preserve">Ensure correct entity authentication and avoid failures in authentication processes.</t>
@@ -550,7 +550,7 @@
     <t xml:space="preserve">27001:2022-5.18</t>
   </si>
   <si>
-    <t xml:space="preserve"> Access rights</t>
+    <t xml:space="preserve">Access rights</t>
   </si>
   <si>
     <t xml:space="preserve">Ensure that access to information and other related assets is defined and authorized in accordance with business requirements</t>
@@ -570,7 +570,7 @@
     <t xml:space="preserve">27001:2022-5.19</t>
   </si>
   <si>
-    <t xml:space="preserve"> Information security in supplier relationships</t>
+    <t xml:space="preserve">Information security in supplier relationships</t>
   </si>
   <si>
     <t xml:space="preserve">Maintain the agreed level of information security in relationships with suppliers.</t>
@@ -1421,7 +1421,7 @@
     <t xml:space="preserve">27001:2022-7.09</t>
   </si>
   <si>
-    <t xml:space="preserve"> Off-Premises Asset Security</t>
+    <t xml:space="preserve">Off-Premises Asset Security</t>
   </si>
   <si>
     <t xml:space="preserve">Prevent loss, damage, theft, or compromise of off-site endpoints and disruption of organizational operations.</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">27001:2022-8.08</t>
   </si>
   <si>
-    <t xml:space="preserve"> Management of technical ulnerabilities</t>
+    <t xml:space="preserve">Management of technical vulnerabilities</t>
   </si>
   <si>
     <t xml:space="preserve">Prevent the exploitation of technical vulnerabilities.</t>
@@ -2494,8 +2494,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2503,7 +2507,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2604,3649 +2608,3649 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E80" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
+      <selection pane="bottomRight" activeCell="G80" activeCellId="0" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="54.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="1" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="25.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="54.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="2" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="8" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="8" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="7" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="7" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="4" t="s">
+      <c r="A26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="K26" s="7" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="7" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K30" s="7" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="8" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="8" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="K33" s="7" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="A34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="K34" s="7" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I35" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="J35" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K35" s="6" t="s">
+      <c r="K35" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J36" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="K36" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K37" s="6" t="s">
+      <c r="K37" s="7" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="4" t="s">
+      <c r="A38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K38" s="6" t="s">
+      <c r="K38" s="7" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K39" s="6" t="s">
+      <c r="K39" s="7" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="J40" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K40" s="6" t="s">
+      <c r="K40" s="7" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="J41" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="K41" s="8" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="A42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="6" t="s">
+      <c r="G42" s="6"/>
+      <c r="H42" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I42" s="6" t="s">
+      <c r="I42" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="J42" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="K42" s="8" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="I43" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="J43" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="K43" s="8" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="4" t="s">
+      <c r="A44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H44" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="I44" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="J44" s="6" t="s">
+      <c r="J44" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="K44" s="8" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="4" t="s">
+      <c r="A45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="I45" s="6" t="s">
+      <c r="I45" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="J45" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="K45" s="8" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="4" t="s">
+      <c r="A46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="I46" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="J46" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="K46" s="8" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="4" t="s">
+      <c r="A47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="H47" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="J47" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="K47" s="6" t="s">
+      <c r="K47" s="7" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="4" t="s">
+      <c r="A48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="H48" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="I48" s="6" t="s">
+      <c r="I48" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="J48" s="6" t="s">
+      <c r="J48" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K48" s="6" t="s">
+      <c r="K48" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="4" t="s">
+      <c r="A49" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="H49" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="I49" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="J49" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K49" s="6" t="s">
+      <c r="K49" s="7" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="4" t="s">
+      <c r="A50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="H50" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="I50" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="J50" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K50" s="6" t="s">
+      <c r="K50" s="7" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="4" t="s">
+      <c r="A51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="6" t="s">
+      <c r="G51" s="6"/>
+      <c r="H51" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="I51" s="6" t="s">
+      <c r="I51" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="J51" s="6" t="s">
+      <c r="J51" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K51" s="6" t="s">
+      <c r="K51" s="7" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="4" t="s">
+      <c r="A52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G52" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="H52" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="I52" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="J52" s="6" t="s">
+      <c r="J52" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K52" s="6" t="s">
+      <c r="K52" s="7" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="4" t="s">
+      <c r="A53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="H53" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="I53" s="6" t="s">
+      <c r="I53" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="J53" s="6" t="s">
+      <c r="J53" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K53" s="6" t="s">
+      <c r="K53" s="7" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="4" t="s">
+      <c r="A54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="H54" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="I54" s="6" t="s">
+      <c r="I54" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="J54" s="6" t="s">
+      <c r="J54" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K54" s="6" t="s">
+      <c r="K54" s="7" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="4" t="s">
+      <c r="A55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G55" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="H55" s="6" t="s">
+      <c r="H55" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="I55" s="6" t="s">
+      <c r="I55" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="J55" s="6" t="s">
+      <c r="J55" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K55" s="6" t="s">
+      <c r="K55" s="7" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="4" t="s">
+      <c r="A56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G56" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="H56" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="I56" s="6" t="s">
+      <c r="I56" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="J56" s="6" t="s">
+      <c r="J56" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K56" s="6" t="s">
+      <c r="K56" s="7" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="4" t="s">
+      <c r="A57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="G57" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="H57" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="I57" s="6" t="s">
+      <c r="I57" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="J57" s="6" t="s">
+      <c r="J57" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K57" s="6" t="s">
+      <c r="K57" s="7" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" s="4" t="s">
+      <c r="A58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G58" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="H58" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="I58" s="6" t="s">
+      <c r="I58" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="J58" s="6" t="s">
+      <c r="J58" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K58" s="6" t="s">
+      <c r="K58" s="7" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="4" t="s">
+      <c r="A59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="G59" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="H59" s="6" t="s">
+      <c r="H59" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="I59" s="6" t="s">
+      <c r="I59" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="J59" s="6" t="s">
+      <c r="J59" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K59" s="6" t="s">
+      <c r="K59" s="7" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" s="4" t="s">
+      <c r="A60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="H60" s="6" t="s">
+      <c r="H60" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="I60" s="6" t="s">
+      <c r="I60" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="J60" s="6" t="s">
+      <c r="J60" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K60" s="6" t="s">
+      <c r="K60" s="7" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" s="4" t="s">
+      <c r="A61" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G61" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="H61" s="6" t="s">
+      <c r="H61" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="I61" s="6" t="s">
+      <c r="I61" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="J61" s="6" t="s">
+      <c r="J61" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K61" s="6" t="s">
+      <c r="K61" s="7" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" s="4" t="s">
+      <c r="A62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F62" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="G62" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="H62" s="6" t="s">
+      <c r="H62" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="I62" s="6" t="s">
+      <c r="I62" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="J62" s="6" t="s">
+      <c r="J62" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K62" s="6" t="s">
+      <c r="K62" s="7" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" s="4" t="s">
+      <c r="A63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G63" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="H63" s="6" t="s">
+      <c r="H63" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="I63" s="6" t="s">
+      <c r="I63" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="J63" s="6" t="s">
+      <c r="J63" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K63" s="6" t="s">
+      <c r="K63" s="7" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="4" t="s">
+      <c r="A64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G64" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="H64" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="I64" s="6" t="s">
+      <c r="I64" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="J64" s="6" t="s">
+      <c r="J64" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K64" s="6" t="s">
+      <c r="K64" s="7" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" s="4" t="s">
+      <c r="A65" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="F65" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="G65" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="H65" s="6" t="s">
+      <c r="H65" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="I65" s="6" t="s">
+      <c r="I65" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="J65" s="6" t="s">
+      <c r="J65" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K65" s="6" t="s">
+      <c r="K65" s="7" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="4" t="s">
+      <c r="A66" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="6" t="s">
+      <c r="G66" s="6"/>
+      <c r="H66" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="I66" s="6" t="s">
+      <c r="I66" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="J66" s="6" t="s">
+      <c r="J66" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K66" s="6" t="s">
+      <c r="K66" s="7" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="4" t="s">
+      <c r="A67" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="6" t="s">
+      <c r="G67" s="6"/>
+      <c r="H67" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="I67" s="6" t="s">
+      <c r="I67" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="J67" s="6" t="s">
+      <c r="J67" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K67" s="6" t="s">
+      <c r="K67" s="7" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" s="4" t="s">
+      <c r="A68" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="G68" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="H68" s="6" t="s">
+      <c r="H68" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="I68" s="6" t="s">
+      <c r="I68" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="J68" s="6" t="s">
+      <c r="J68" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K68" s="6" t="s">
+      <c r="K68" s="7" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" s="4" t="s">
+      <c r="A69" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="G69" s="6" t="s">
+      <c r="G69" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H69" s="6" t="s">
+      <c r="H69" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="I69" s="6" t="s">
+      <c r="I69" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="J69" s="6" t="s">
+      <c r="J69" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="K69" s="6" t="s">
+      <c r="K69" s="7" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" s="4" t="s">
+      <c r="A70" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="F70" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="G70" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="H70" s="6" t="s">
+      <c r="H70" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="I70" s="6" t="s">
+      <c r="I70" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="J70" s="6" t="s">
+      <c r="J70" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="K70" s="6" t="s">
+      <c r="K70" s="7" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B71" s="4" t="s">
+      <c r="A71" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="F71" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="G71" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="H71" s="6" t="s">
+      <c r="H71" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="I71" s="6" t="s">
+      <c r="I71" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="J71" s="6" t="s">
+      <c r="J71" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="K71" s="6" t="s">
+      <c r="K71" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B72" s="4" t="s">
+      <c r="A72" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="F72" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="G72" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H72" s="6" t="s">
+      <c r="H72" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="I72" s="6" t="s">
+      <c r="I72" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="J72" s="6" t="s">
+      <c r="J72" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K72" s="6" t="s">
+      <c r="K72" s="7" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B73" s="4" t="s">
+      <c r="A73" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="G73" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="H73" s="6" t="s">
+      <c r="H73" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="I73" s="6" t="s">
+      <c r="I73" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="J73" s="6" t="s">
+      <c r="J73" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K73" s="6" t="s">
+      <c r="K73" s="7" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" s="4" t="s">
+      <c r="A74" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G74" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="H74" s="6" t="s">
+      <c r="H74" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="I74" s="6" t="s">
+      <c r="I74" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="J74" s="6" t="s">
+      <c r="J74" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K74" s="6" t="s">
+      <c r="K74" s="7" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B75" s="4" t="s">
+      <c r="A75" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="G75" s="7" t="s">
+      <c r="G75" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="H75" s="6" t="s">
+      <c r="H75" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="I75" s="6" t="s">
+      <c r="I75" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="J75" s="6" t="s">
+      <c r="J75" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K75" s="6" t="s">
+      <c r="K75" s="7" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B76" s="4" t="s">
+      <c r="A76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="F76" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="G76" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="H76" s="6" t="s">
+      <c r="H76" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="I76" s="6" t="s">
+      <c r="I76" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="J76" s="6" t="s">
+      <c r="J76" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K76" s="6" t="s">
+      <c r="K76" s="7" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B77" s="4" t="s">
+      <c r="A77" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="F77" s="6" t="s">
+      <c r="F77" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="G77" s="7" t="s">
+      <c r="G77" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="H77" s="6" t="s">
+      <c r="H77" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="I77" s="6" t="s">
+      <c r="I77" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="J77" s="6" t="s">
+      <c r="J77" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K77" s="6" t="s">
+      <c r="K77" s="7" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B78" s="4" t="s">
+      <c r="A78" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="G78" s="6" t="s">
+      <c r="G78" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="H78" s="6" t="s">
+      <c r="H78" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="I78" s="6" t="s">
+      <c r="I78" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="J78" s="6" t="s">
+      <c r="J78" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K78" s="6" t="s">
+      <c r="K78" s="7" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B79" s="4" t="s">
+      <c r="A79" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="G79" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="H79" s="6" t="s">
+      <c r="H79" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="I79" s="6" t="s">
+      <c r="I79" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="J79" s="6" t="s">
+      <c r="J79" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K79" s="6" t="s">
+      <c r="K79" s="7" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B80" s="4" t="s">
+      <c r="A80" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="G80" s="6" t="s">
+      <c r="G80" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="H80" s="6" t="s">
+      <c r="H80" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="I80" s="6" t="s">
+      <c r="I80" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="J80" s="6" t="s">
+      <c r="J80" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K80" s="6" t="s">
+      <c r="K80" s="7" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B81" s="4" t="s">
+      <c r="A81" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E81" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="G81" s="7" t="s">
+      <c r="G81" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="H81" s="6" t="s">
+      <c r="H81" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="I81" s="6" t="s">
+      <c r="I81" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="J81" s="6" t="s">
+      <c r="J81" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K81" s="6" t="s">
+      <c r="K81" s="7" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B82" s="4" t="s">
+      <c r="A82" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="G82" s="6" t="s">
+      <c r="G82" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="H82" s="6" t="s">
+      <c r="H82" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="I82" s="6" t="s">
+      <c r="I82" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="J82" s="6" t="s">
+      <c r="J82" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K82" s="6" t="s">
+      <c r="K82" s="7" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B83" s="4" t="s">
+      <c r="A83" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="G83" s="7" t="s">
+      <c r="G83" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="H83" s="6" t="s">
+      <c r="H83" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="I83" s="6" t="s">
+      <c r="I83" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="J83" s="6" t="s">
+      <c r="J83" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K83" s="6" t="s">
+      <c r="K83" s="7" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B84" s="4" t="s">
+      <c r="A84" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="8" t="s">
         <v>593</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="8" t="s">
         <v>594</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="G84" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="H84" s="6" t="s">
+      <c r="H84" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="I84" s="6" t="s">
+      <c r="I84" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="J84" s="6" t="s">
+      <c r="J84" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K84" s="6" t="s">
+      <c r="K84" s="7" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B85" s="4" t="s">
+      <c r="A85" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E85" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="G85" s="7" t="s">
+      <c r="G85" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="H85" s="6" t="s">
+      <c r="H85" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="I85" s="6" t="s">
+      <c r="I85" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="J85" s="6" t="s">
+      <c r="J85" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K85" s="6" t="s">
+      <c r="K85" s="7" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B86" s="4" t="s">
+      <c r="A86" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E86" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="G86" s="7" t="s">
+      <c r="G86" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="H86" s="6" t="s">
+      <c r="H86" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="I86" s="6" t="s">
+      <c r="I86" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="J86" s="6" t="s">
+      <c r="J86" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K86" s="6" t="s">
+      <c r="K86" s="7" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" s="4" t="s">
+      <c r="A87" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="F87" s="6" t="s">
+      <c r="F87" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="G87" s="7" t="s">
+      <c r="G87" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="H87" s="6" t="s">
+      <c r="H87" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="I87" s="6" t="s">
+      <c r="I87" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="J87" s="6" t="s">
+      <c r="J87" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K87" s="6" t="s">
+      <c r="K87" s="7" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B88" s="4" t="s">
+      <c r="A88" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="G88" s="7" t="s">
+      <c r="G88" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="H88" s="6" t="s">
+      <c r="H88" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="I88" s="6" t="s">
+      <c r="I88" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="J88" s="6" t="s">
+      <c r="J88" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K88" s="6" t="s">
+      <c r="K88" s="7" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B89" s="4" t="s">
+      <c r="A89" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="F89" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="G89" s="6" t="s">
+      <c r="G89" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="H89" s="6" t="s">
+      <c r="H89" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="I89" s="6" t="s">
+      <c r="I89" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="J89" s="6" t="s">
+      <c r="J89" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K89" s="6" t="s">
+      <c r="K89" s="7" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B90" s="4" t="s">
+      <c r="A90" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E90" s="8" t="s">
         <v>634</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="F90" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="G90" s="6" t="s">
+      <c r="G90" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="H90" s="6" t="s">
+      <c r="H90" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="I90" s="6" t="s">
+      <c r="I90" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="J90" s="6" t="s">
+      <c r="J90" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K90" s="6" t="s">
+      <c r="K90" s="7" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B91" s="4" t="s">
+      <c r="A91" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F91" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="G91" s="6" t="s">
+      <c r="G91" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="H91" s="6" t="s">
+      <c r="H91" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="I91" s="6" t="s">
+      <c r="I91" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="J91" s="6" t="s">
+      <c r="J91" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K91" s="6" t="s">
+      <c r="K91" s="7" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B92" s="4" t="s">
+      <c r="A92" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E92" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F92" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="G92" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="H92" s="6" t="s">
+      <c r="H92" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="I92" s="6" t="s">
+      <c r="I92" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="J92" s="6" t="s">
+      <c r="J92" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K92" s="6" t="s">
+      <c r="K92" s="7" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B93" s="4" t="s">
+      <c r="A93" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="8" t="s">
         <v>653</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="G93" s="6" t="s">
+      <c r="G93" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="H93" s="6" t="s">
+      <c r="H93" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="I93" s="6" t="s">
+      <c r="I93" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="J93" s="6" t="s">
+      <c r="J93" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K93" s="6" t="s">
+      <c r="K93" s="7" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B94" s="4" t="s">
+      <c r="A94" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E94" s="8" t="s">
         <v>660</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F94" s="8" t="s">
         <v>661</v>
       </c>
-      <c r="G94" s="6" t="s">
+      <c r="G94" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="H94" s="6" t="s">
+      <c r="H94" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="I94" s="6" t="s">
+      <c r="I94" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="J94" s="6" t="s">
+      <c r="J94" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K94" s="6" t="s">
+      <c r="K94" s="7" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B95" s="4" t="s">
+      <c r="A95" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="8" t="s">
         <v>666</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="G95" s="7" t="s">
+      <c r="G95" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="H95" s="6" t="s">
+      <c r="H95" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="I95" s="6" t="s">
+      <c r="I95" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="J95" s="6" t="s">
+      <c r="J95" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K95" s="6" t="s">
+      <c r="K95" s="7" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B96" s="4" t="s">
+      <c r="A96" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E96" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="F96" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="G96" s="7" t="s">
+      <c r="G96" s="8" t="s">
         <v>675</v>
       </c>
-      <c r="H96" s="6" t="s">
+      <c r="H96" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="I96" s="6" t="s">
+      <c r="I96" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="J96" s="6" t="s">
+      <c r="J96" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K96" s="6" t="s">
+      <c r="K96" s="7" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B97" s="4" t="s">
+      <c r="A97" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E97" s="8" t="s">
         <v>680</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F97" s="8" t="s">
         <v>681</v>
       </c>
-      <c r="G97" s="7" t="s">
+      <c r="G97" s="8" t="s">
         <v>682</v>
       </c>
-      <c r="H97" s="6" t="s">
+      <c r="H97" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="I97" s="6" t="s">
+      <c r="I97" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="J97" s="6" t="s">
+      <c r="J97" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K97" s="6" t="s">
+      <c r="K97" s="7" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B98" s="4" t="s">
+      <c r="A98" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E98" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="F98" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="G98" s="7" t="s">
+      <c r="G98" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="H98" s="6" t="s">
+      <c r="H98" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="I98" s="6" t="s">
+      <c r="I98" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="J98" s="6" t="s">
+      <c r="J98" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K98" s="6" t="s">
+      <c r="K98" s="7" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B99" s="4" t="s">
+      <c r="A99" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E99" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="F99" s="6" t="s">
+      <c r="F99" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="G99" s="7" t="s">
+      <c r="G99" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="H99" s="6" t="s">
+      <c r="H99" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="I99" s="6" t="s">
+      <c r="I99" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="J99" s="6" t="s">
+      <c r="J99" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K99" s="6" t="s">
+      <c r="K99" s="7" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B100" s="4" t="s">
+      <c r="A100" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="8" t="s">
         <v>699</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F100" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="G100" s="7" t="s">
+      <c r="G100" s="8" t="s">
         <v>701</v>
       </c>
-      <c r="H100" s="6" t="s">
+      <c r="H100" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="I100" s="6" t="s">
+      <c r="I100" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="J100" s="6" t="s">
+      <c r="J100" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K100" s="6" t="s">
+      <c r="K100" s="7" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B101" s="4" t="s">
+      <c r="A101" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E101" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F101" s="8" t="s">
         <v>707</v>
       </c>
-      <c r="G101" s="7" t="s">
+      <c r="G101" s="8" t="s">
         <v>708</v>
       </c>
-      <c r="H101" s="6" t="s">
+      <c r="H101" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="I101" s="6" t="s">
+      <c r="I101" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="J101" s="6" t="s">
+      <c r="J101" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K101" s="6" t="s">
+      <c r="K101" s="7" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C102" s="4" t="s">
+      <c r="A102" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E102" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="F102" s="8" t="s">
         <v>714</v>
       </c>
-      <c r="G102" s="5"/>
-      <c r="H102" s="6" t="s">
+      <c r="G102" s="6"/>
+      <c r="H102" s="7" t="s">
         <v>715</v>
       </c>
-      <c r="I102" s="6" t="s">
+      <c r="I102" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="J102" s="6" t="s">
+      <c r="J102" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K102" s="6" t="s">
+      <c r="K102" s="7" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103" s="4" t="s">
+      <c r="A103" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E103" s="8" t="s">
         <v>719</v>
       </c>
-      <c r="F103" s="6" t="s">
+      <c r="F103" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="G103" s="5"/>
-      <c r="H103" s="6" t="s">
+      <c r="G103" s="6"/>
+      <c r="H103" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="I103" s="6" t="s">
+      <c r="I103" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="J103" s="6" t="s">
+      <c r="J103" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K103" s="6" t="s">
+      <c r="K103" s="7" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C104" s="4" t="s">
+      <c r="A104" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E104" s="8" t="s">
         <v>725</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="F104" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="G104" s="5"/>
-      <c r="H104" s="6" t="s">
+      <c r="G104" s="6"/>
+      <c r="H104" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I104" s="6" t="s">
+      <c r="I104" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="J104" s="6" t="s">
+      <c r="J104" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K104" s="6" t="s">
+      <c r="K104" s="7" t="s">
         <v>729</v>
       </c>
     </row>
